--- a/gameData/shared/DragonEquipments.xlsx
+++ b/gameData/shared/DragonEquipments.xlsx
@@ -4,58 +4,55 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="1260" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="3760" yWindow="2460" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
-    <sheet name="crown" sheetId="53" r:id="rId1"/>
-    <sheet name="armguardLeft" sheetId="50" r:id="rId2"/>
-    <sheet name="armguardRight" sheetId="59" r:id="rId3"/>
-    <sheet name="chest" sheetId="52" r:id="rId4"/>
-    <sheet name="sting" sheetId="49" r:id="rId5"/>
-    <sheet name="orb" sheetId="51" r:id="rId6"/>
-    <sheet name="equipments" sheetId="62" r:id="rId7"/>
-    <sheet name="equipmentBuff" sheetId="55" r:id="rId8"/>
+    <sheet name="equipments" sheetId="62" r:id="rId1"/>
+    <sheet name="equipmentBuff" sheetId="55" r:id="rId2"/>
+    <sheet name="crown" sheetId="53" r:id="rId3"/>
+    <sheet name="armguardLeft" sheetId="50" r:id="rId4"/>
+    <sheet name="armguardRight" sheetId="59" r:id="rId5"/>
+    <sheet name="chest" sheetId="52" r:id="rId6"/>
+    <sheet name="sting" sheetId="49" r:id="rId7"/>
+    <sheet name="orb" sheetId="51" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crown!$A$1:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">crown!$A$1:$D$21</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -68,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="158">
   <si>
     <t>INT_strength</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -319,10 +316,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>moltenCrown</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>crown</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -331,478 +324,343 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>moltenShard:9,challengeRune:9</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>glacierCrown</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>crown</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>glacierShard:9,challengeRune:9</t>
-  </si>
-  <si>
-    <t>chargedCrown</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>crown</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>chargedShard:9,challengeRune:9</t>
-  </si>
-  <si>
-    <t>fireSuppressCrown</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>crown</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>moltenShard:9,suppressRune:9</t>
-  </si>
-  <si>
-    <t>coldSuppressCrown</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>glacierShard:9,suppressRune:9</t>
-  </si>
-  <si>
-    <t>windSuppressCrown</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargedShard:9,suppressRune:9</t>
-  </si>
-  <si>
-    <t>rageCrown</t>
-  </si>
-  <si>
     <t>crown</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>moltenShiver:9,rageRune:9</t>
-  </si>
-  <si>
-    <t>frostCrown</t>
-  </si>
-  <si>
-    <t>glacierShiver:9,guardRune:9</t>
-  </si>
-  <si>
-    <t>poisonCrown</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargedShiver:9,poisonRune:9</t>
-  </si>
-  <si>
-    <t>giantCrown</t>
-  </si>
-  <si>
-    <t>moltenCore:9,giantRune:9</t>
-  </si>
-  <si>
-    <t>dolanCrown</t>
-  </si>
-  <si>
-    <t>glacierCore:9,dolanRune:9</t>
-  </si>
-  <si>
-    <t>warsongCrown</t>
-  </si>
-  <si>
-    <t>chargedCore:9,warsongRune:9</t>
-  </si>
-  <si>
-    <t>infernoCrown</t>
-  </si>
-  <si>
-    <t>moltenMagnet:9,infernoRune:9</t>
-  </si>
-  <si>
-    <t>blizzardCrown</t>
-  </si>
-  <si>
-    <t>glacierMagnet:9,arcanaRune:9</t>
-  </si>
-  <si>
-    <t>eternityCrown</t>
-  </si>
-  <si>
-    <t>chargedMagnet:9,eternityRune:9</t>
-  </si>
-  <si>
-    <t>fireSuppressChest</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>chest</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>steelIngot:8,wispOfFire:8,suppressRune:8</t>
-  </si>
-  <si>
-    <t>coldSuppressChest</t>
-  </si>
-  <si>
-    <t>steelIngot:8,wispOfCold:8,suppressRune:8</t>
-  </si>
-  <si>
-    <t>windSuppressChest</t>
-  </si>
-  <si>
-    <t>steelIngot:8,wispOfWind:8,suppressRune:8</t>
-  </si>
-  <si>
-    <t>rageChest</t>
-  </si>
-  <si>
-    <t>mithrilIngot:8,wispOfFire:8,rageRune:8</t>
-  </si>
-  <si>
-    <t>frostChest</t>
-  </si>
-  <si>
-    <t>mithrilIngot:8,wispOfCold:8,guardRune:8</t>
-  </si>
-  <si>
-    <t>poisonChest</t>
-  </si>
-  <si>
-    <t>mithrilIngot:8,wispOfWind:8,poisonRune:8</t>
-  </si>
-  <si>
-    <t>giantChest</t>
-  </si>
-  <si>
-    <t>blackIronIngot:8,lavaSoul:8,giantRune:8</t>
-  </si>
-  <si>
-    <t>dolanChest</t>
-  </si>
-  <si>
-    <t>blackIronIngot:8,iceSoul:8,dolanRune:8</t>
-  </si>
-  <si>
-    <t>warsongChest</t>
-  </si>
-  <si>
-    <t>blackIronIngot:8,forestSoul:8,warsongRune:8</t>
-  </si>
-  <si>
-    <t>infernoChest</t>
-  </si>
-  <si>
-    <t>arcaniteIngot:8,infernoSoul:8,infernoRune:8</t>
-  </si>
-  <si>
-    <t>blizzardChest</t>
-  </si>
-  <si>
-    <t>arcaniteIngot:8,blizzardSoul:8,arcanaRune:8</t>
-  </si>
-  <si>
-    <t>eternityChest</t>
-  </si>
-  <si>
-    <t>arcaniteIngot:8,fairySoul:8,eternityRune:8</t>
-  </si>
-  <si>
-    <t>fireSuppressSting</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>sting</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>steelIngot:7,moltenShard:7,suppressRune:7</t>
-  </si>
-  <si>
-    <t>coldSuppressSting</t>
-  </si>
-  <si>
-    <t>steelIngot:7,glacierShard:7,suppressRune:7</t>
-  </si>
-  <si>
-    <t>windSuppressSting</t>
-  </si>
-  <si>
-    <t>steelIngot:7,chargedShard:7,suppressRune:7</t>
-  </si>
-  <si>
-    <t>rageSting</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>mithrilIngot:7,moltenShiver:7,rageRune:7</t>
-  </si>
-  <si>
-    <t>frostSting</t>
-  </si>
-  <si>
-    <t>mithrilIngot:7,glacierShiver:7,guardRune:7</t>
-  </si>
-  <si>
-    <t>poisonSting</t>
-  </si>
-  <si>
     <t>sting</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>mithrilIngot:7,chargedShiver:7,poisonRune:7</t>
-  </si>
-  <si>
-    <t>giantSting</t>
-  </si>
-  <si>
-    <t>blackIronIngot:7,moltenCore:7,giantRune:7</t>
-  </si>
-  <si>
-    <t>dolanSting</t>
-  </si>
-  <si>
-    <t>blackIronIngot:7,glacierCore:7,dolanRune:7</t>
-  </si>
-  <si>
-    <t>warsongSting</t>
-  </si>
-  <si>
-    <t>blackIronIngot:7,chargedCore:7,warsongRune:7</t>
-  </si>
-  <si>
-    <t>infernoSting</t>
-  </si>
-  <si>
-    <t>arcaniteIngot:7,moltenMagnet:7,infernoRune:7</t>
-  </si>
-  <si>
-    <t>blizzardSting</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>arcaniteIngot:7,glacierMagnet:7,arcanaRune:7</t>
-  </si>
-  <si>
-    <t>eternitySting</t>
-  </si>
-  <si>
-    <t>arcaniteIngot:7,chargedMagnet:7,eternityRune:7</t>
-  </si>
-  <si>
-    <t>fireSuppressOrb</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>orb</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>steelIngot:6,wispOfFire:6,moltenShard:6</t>
-  </si>
-  <si>
-    <t>coldSuppressOrb</t>
-  </si>
-  <si>
-    <t>steelIngot:6,wispOfCold:6,glacierShard:6</t>
-  </si>
-  <si>
-    <t>windSuppressOrb</t>
-  </si>
-  <si>
     <t>orb</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>steelIngot:6,wispOfWind:6,chargedShard:6</t>
-  </si>
-  <si>
-    <t>rageOrb</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>mithrilIngot:6,wispOfFire:6,moltenShiver:6</t>
-  </si>
-  <si>
-    <t>frostOrb</t>
-  </si>
-  <si>
-    <t>mithrilIngot:6,wispOfCold:6,glacierShiver:6</t>
-  </si>
-  <si>
-    <t>poisonOrb</t>
-  </si>
-  <si>
     <t>orb</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>mithrilIngot:6,wispOfWind:6,chargedShiver:6</t>
-  </si>
-  <si>
-    <t>giantOrb</t>
-  </si>
-  <si>
     <t>orb</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>blackIronIngot:6,lavaSoul:6,moltenCore:6</t>
-  </si>
-  <si>
-    <t>dolanOrb</t>
-  </si>
-  <si>
-    <t>blackIronIngot:6,iceSoul:6,glacierCore:6</t>
-  </si>
-  <si>
-    <t>warsongOrb</t>
-  </si>
-  <si>
-    <t>blackIronIngot:6,forestSoul:6,chargedCore:6</t>
-  </si>
-  <si>
-    <t>infernoOrb</t>
-  </si>
-  <si>
-    <t>arcaniteIngot:6,infernoSoul:6,moltenMagnet:6</t>
-  </si>
-  <si>
-    <t>blizzardOrb</t>
-  </si>
-  <si>
     <t>orb</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>arcaniteIngot:6,blizzardSoul:6,glacierMagnet:6</t>
-  </si>
-  <si>
-    <t>eternityOrb</t>
-  </si>
-  <si>
-    <t>arcaniteIngot:6,fairySoul:6,chargedMagnet:6</t>
-  </si>
-  <si>
-    <t>moltenArmguard</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>armguardLeft,armguardRight</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ironIngot:10,moltenShard:10</t>
-  </si>
-  <si>
-    <t>glacierArmguard</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironIngot:10,glacierShard:10</t>
-  </si>
-  <si>
-    <t>chargedArmguard</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironIngot:10,chargedShard:10</t>
-  </si>
-  <si>
-    <t>fireSuppressArmguard</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>armguardLeft,armguardRight</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>steelIngot:10,moltenShard:10</t>
-  </si>
-  <si>
-    <t>coldSuppressArmguard</t>
-  </si>
-  <si>
-    <t>steelIngot:10,glacierShard:10</t>
-  </si>
-  <si>
-    <t>windSuppressArmguard</t>
-  </si>
-  <si>
-    <t>steelIngot:10,chargedShard:10</t>
-  </si>
-  <si>
-    <t>rageArmguard</t>
-  </si>
-  <si>
-    <t>mithrilIngot:10,moltenShiver:10</t>
-  </si>
-  <si>
-    <t>frostArmguard</t>
-  </si>
-  <si>
-    <t>mithrilIngot:10,glacierShiver:10</t>
-  </si>
-  <si>
-    <t>poisonArmguard</t>
-  </si>
-  <si>
     <t>armguardLeft,armguardRight</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>mithrilIngot:10,chargedShiver:10</t>
-  </si>
-  <si>
-    <t>giantArmguard</t>
-  </si>
-  <si>
-    <t>blackIronIngot:10,moltenCore:10</t>
-  </si>
-  <si>
-    <t>dolanArmguard</t>
-  </si>
-  <si>
-    <t>blackIronIngot:10,glacierCore:10</t>
-  </si>
-  <si>
-    <t>warsongArmguard</t>
-  </si>
-  <si>
-    <t>blackIronIngot:10,chargedCore:10</t>
-  </si>
-  <si>
-    <t>infernoArmguard</t>
-  </si>
-  <si>
     <t>armguardLeft,armguardRight</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>arcaniteIngot:10,moltenMagnet:10</t>
-  </si>
-  <si>
-    <t>blizzardArmguard</t>
-  </si>
-  <si>
-    <t>arcaniteIngot:10,glacierMagnet:10</t>
-  </si>
-  <si>
-    <t>eternityArmguard</t>
-  </si>
-  <si>
-    <t>arcaniteIngot:10,chargedMagnet:10</t>
+    <t>redCrown_s1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueCrown_s1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redCrown_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueCrown_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenCrown_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redCrown_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueCrown_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenCrown_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redCrown_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueCrown_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenCrown_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redCrown_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueCrown_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenCrown_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redChest_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueChest_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueChest_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redChest_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueChest_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenChest_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueSting_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redSting_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenSting_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redSting_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueSting_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenSting_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redSting_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueSting_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenSting_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redSting_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueSting_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenSting_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenChest_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redChest_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenChest_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redChest_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueChest_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenChest_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redOrd_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueOrd_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenOrd_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redOrd_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueOrd_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenOrd_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redOrd_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueOrd_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenOrd_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redOrd_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueOrd_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenOrd_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>armguardLeft,armguardRight</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redArmguard_s1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueArmguard_s1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenArmguard_s1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redArmguard_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueArmguard_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenArmguard_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redArmguard_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueArmguard_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenArmguard_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redArmguard_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueArmguard_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenArmguard_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redArmguard_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueArmguard_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenArmguard_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenCrown_s1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron_1:1,redCrystal_1:1</t>
+  </si>
+  <si>
+    <t>iron_1:1,redCrystal_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -983,7 +841,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1320">
+  <cellStyleXfs count="1364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -998,6 +856,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2327,7 +2229,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1320">
+  <cellStyles count="1364">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2990,6 +2892,28 @@
     <cellStyle name="超链接" xfId="1314" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1316" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1362" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3645,6 +3569,28 @@
     <cellStyle name="访问过的超链接" xfId="1315" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1317" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1363" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3720,19 +3666,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="equipments"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4107,479 +4040,2202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C53" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="20.6640625" style="2"/>
+    <col min="1" max="2" width="17.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2"/>
+    <col min="4" max="4" width="27" style="2" customWidth="1"/>
+    <col min="5" max="7" width="17.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="D2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="2">
+        <v>320</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2">
-        <v>40</v>
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C3" s="2">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="2">
+        <v>320</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2">
+        <v>155</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="2">
+        <v>320</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="2">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J8" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2">
+        <v>75</v>
+      </c>
+      <c r="F9" s="2">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J9" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="2">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J10" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2">
+        <v>150</v>
+      </c>
+      <c r="F11" s="2">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J11" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2">
+        <v>150</v>
+      </c>
+      <c r="F12" s="2">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J12" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2">
+        <v>150</v>
+      </c>
+      <c r="F13" s="2">
+        <v>100</v>
+      </c>
+      <c r="G13" s="2">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J13" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2">
+        <v>300</v>
+      </c>
+      <c r="F14" s="2">
+        <v>200</v>
+      </c>
+      <c r="G14" s="2">
+        <v>100</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J14" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2">
+        <v>300</v>
+      </c>
+      <c r="F15" s="2">
+        <v>200</v>
+      </c>
+      <c r="G15" s="2">
+        <v>100</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J15" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2">
+        <v>300</v>
+      </c>
+      <c r="F16" s="2">
+        <v>200</v>
+      </c>
+      <c r="G16" s="2">
+        <v>100</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J16" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="2">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="2">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="20" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="2">
+        <v>75</v>
+      </c>
+      <c r="F20" s="2">
+        <v>50</v>
+      </c>
+      <c r="G20" s="2">
+        <v>25</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J20" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="20" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="2">
+        <v>75</v>
+      </c>
+      <c r="F21" s="2">
+        <v>50</v>
+      </c>
+      <c r="G21" s="2">
+        <v>25</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J21" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="20" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="2">
+        <v>75</v>
+      </c>
+      <c r="F22" s="2">
+        <v>50</v>
+      </c>
+      <c r="G22" s="2">
+        <v>25</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J22" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2">
+        <v>150</v>
+      </c>
+      <c r="F23" s="2">
+        <v>100</v>
+      </c>
+      <c r="G23" s="2">
+        <v>50</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J23" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="2">
+        <v>150</v>
+      </c>
+      <c r="F24" s="2">
+        <v>100</v>
+      </c>
+      <c r="G24" s="2">
+        <v>50</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J24" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="20" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="2">
+        <v>150</v>
+      </c>
+      <c r="F25" s="2">
+        <v>100</v>
+      </c>
+      <c r="G25" s="2">
+        <v>50</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J25" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="20" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="2">
+        <v>300</v>
+      </c>
+      <c r="F26" s="2">
+        <v>200</v>
+      </c>
+      <c r="G26" s="2">
+        <v>100</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J26" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="20" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="2">
+        <v>300</v>
+      </c>
+      <c r="F27" s="2">
+        <v>200</v>
+      </c>
+      <c r="G27" s="2">
+        <v>100</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J27" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="20" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="2">
+        <v>300</v>
+      </c>
+      <c r="F28" s="2">
+        <v>200</v>
+      </c>
+      <c r="G28" s="2">
+        <v>100</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J28" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="2">
+        <v>30</v>
+      </c>
+      <c r="F29" s="2">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2">
+        <v>10</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J29" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="20" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="2">
+        <v>30</v>
+      </c>
+      <c r="F30" s="2">
+        <v>20</v>
+      </c>
+      <c r="G30" s="2">
+        <v>10</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="20" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="2">
+        <v>30</v>
+      </c>
+      <c r="F31" s="2">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2">
+        <v>10</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J31" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="20" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="2">
+        <v>75</v>
+      </c>
+      <c r="F32" s="2">
+        <v>50</v>
+      </c>
+      <c r="G32" s="2">
+        <v>25</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J32" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="20" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="2">
+        <v>75</v>
+      </c>
+      <c r="F33" s="2">
+        <v>50</v>
+      </c>
+      <c r="G33" s="2">
+        <v>25</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I33" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J33" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="20" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="2">
+        <v>75</v>
+      </c>
+      <c r="F34" s="2">
+        <v>50</v>
+      </c>
+      <c r="G34" s="2">
+        <v>25</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J34" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="2">
+        <v>150</v>
+      </c>
+      <c r="F35" s="2">
+        <v>100</v>
+      </c>
+      <c r="G35" s="2">
+        <v>50</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I35" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J35" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="20" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="2">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="2">
+        <v>150</v>
+      </c>
+      <c r="F36" s="2">
+        <v>100</v>
+      </c>
+      <c r="G36" s="2">
+        <v>50</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J36" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="20" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="2">
+        <v>150</v>
+      </c>
+      <c r="F37" s="2">
+        <v>100</v>
+      </c>
+      <c r="G37" s="2">
+        <v>50</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I37" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J37" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="20" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="2">
+        <v>300</v>
+      </c>
+      <c r="F38" s="2">
+        <v>200</v>
+      </c>
+      <c r="G38" s="2">
+        <v>100</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I38" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J38" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="20" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="2">
+        <v>300</v>
+      </c>
+      <c r="F39" s="2">
+        <v>200</v>
+      </c>
+      <c r="G39" s="2">
+        <v>100</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I39" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J39" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="20" customHeight="1">
+      <c r="A40" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="2">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="B40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="2">
+        <v>300</v>
+      </c>
+      <c r="F40" s="2">
+        <v>200</v>
+      </c>
+      <c r="G40" s="2">
+        <v>100</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I40" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J40" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="20" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="2">
         <v>30</v>
       </c>
-      <c r="B5" s="2">
-        <v>160</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="F41" s="2">
+        <v>20</v>
+      </c>
+      <c r="G41" s="2">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
+      <c r="H41" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J41" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="20" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="2">
+        <v>30</v>
+      </c>
+      <c r="F42" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="G42" s="2">
+        <v>10</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J42" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="20" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="2">
+        <v>30</v>
+      </c>
+      <c r="F43" s="2">
+        <v>20</v>
+      </c>
+      <c r="G43" s="2">
+        <v>10</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J43" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="20" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="2">
+        <v>75</v>
+      </c>
+      <c r="F44" s="2">
+        <v>50</v>
+      </c>
+      <c r="G44" s="2">
+        <v>25</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J44" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="20" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="2">
+        <v>75</v>
+      </c>
+      <c r="F45" s="2">
+        <v>50</v>
+      </c>
+      <c r="G45" s="2">
+        <v>25</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I45" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J45" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="20" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="2">
+        <v>75</v>
+      </c>
+      <c r="F46" s="2">
+        <v>50</v>
+      </c>
+      <c r="G46" s="2">
+        <v>25</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I46" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J46" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="20" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="3">
+        <v>150</v>
+      </c>
+      <c r="F47" s="3">
+        <v>100</v>
+      </c>
+      <c r="G47" s="3">
+        <v>50</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I47" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J47" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="20" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="3">
+        <v>150</v>
+      </c>
+      <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="5">
+        <v>50</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I48" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J48" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="20" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="3">
+        <v>150</v>
+      </c>
+      <c r="F49" s="3">
+        <v>100</v>
+      </c>
+      <c r="G49" s="5">
+        <v>50</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I49" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J49" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="20" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="5">
+        <v>300</v>
+      </c>
+      <c r="F50" s="5">
         <v>200</v>
       </c>
-      <c r="C6" s="2">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2">
-        <v>600</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="G50" s="5">
+        <v>100</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I50" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J50" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="20" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="5">
+        <v>300</v>
+      </c>
+      <c r="F51" s="5">
+        <v>200</v>
+      </c>
+      <c r="G51" s="5">
+        <v>100</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I51" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J51" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="20" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="2">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="5">
+        <v>300</v>
+      </c>
+      <c r="F52" s="5">
+        <v>200</v>
+      </c>
+      <c r="G52" s="5">
+        <v>100</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I52" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J52" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="20" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="5">
         <v>15</v>
       </c>
-      <c r="D7" s="2">
+      <c r="F53" s="5">
+        <v>10</v>
+      </c>
+      <c r="G53" s="5">
+        <v>5</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I53" s="2">
+        <v>320</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="20" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="5">
+        <v>15</v>
+      </c>
+      <c r="F54" s="5">
+        <v>10</v>
+      </c>
+      <c r="G54" s="5">
+        <v>5</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I54" s="2">
+        <v>320</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="20" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="5">
+        <v>15</v>
+      </c>
+      <c r="F55" s="5">
+        <v>10</v>
+      </c>
+      <c r="G55" s="5">
+        <v>5</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I55" s="2">
+        <v>320</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="20" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2">
-        <v>800</v>
-      </c>
-      <c r="C8" s="2">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C9" s="2">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C10" s="2">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C11" s="2">
-        <v>28</v>
-      </c>
-      <c r="D11" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C12" s="2">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2400</v>
-      </c>
-      <c r="C13" s="2">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2800</v>
-      </c>
-      <c r="C14" s="2">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="F56" s="5">
+        <v>20</v>
+      </c>
+      <c r="G56" s="5">
+        <v>10</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J56" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="20" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="5">
+        <v>30</v>
+      </c>
+      <c r="F57" s="5">
+        <v>20</v>
+      </c>
+      <c r="G57" s="5">
+        <v>10</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J57" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="20" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="5">
+        <v>30</v>
+      </c>
+      <c r="F58" s="5">
+        <v>20</v>
+      </c>
+      <c r="G58" s="5">
+        <v>10</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1280</v>
+      </c>
+      <c r="J58" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="20" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="5">
+        <v>75</v>
+      </c>
+      <c r="F59" s="5">
         <v>50</v>
       </c>
-      <c r="B15" s="2">
-        <v>3200</v>
-      </c>
-      <c r="C15" s="2">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C16" s="2">
-        <v>45</v>
-      </c>
-      <c r="D16" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4800</v>
-      </c>
-      <c r="C17" s="2">
-        <v>48</v>
-      </c>
-      <c r="D17" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5600</v>
-      </c>
-      <c r="C18" s="2">
-        <v>51</v>
-      </c>
-      <c r="D18" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="2">
-        <v>6400</v>
-      </c>
-      <c r="C19" s="2">
-        <v>54</v>
-      </c>
-      <c r="D19" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="G59" s="5">
+        <v>25</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I59" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J59" s="2">
         <v>7200</v>
       </c>
-      <c r="C20" s="2">
+    </row>
+    <row r="60" spans="1:10" ht="20" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="5">
+        <v>75</v>
+      </c>
+      <c r="F60" s="5">
+        <v>50</v>
+      </c>
+      <c r="G60" s="5">
+        <v>25</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I60" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J60" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="20" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="5">
+        <v>75</v>
+      </c>
+      <c r="F61" s="5">
+        <v>50</v>
+      </c>
+      <c r="G61" s="5">
+        <v>25</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I61" s="2">
+        <v>5120</v>
+      </c>
+      <c r="J61" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="20" customHeight="1">
+      <c r="A62" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="2">
-        <v>8000</v>
-      </c>
-      <c r="C21" s="2">
-        <v>60</v>
-      </c>
-      <c r="D21" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="20" customHeight="1">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" ht="20" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" ht="20" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4" ht="20" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" ht="20" customHeight="1">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" ht="20" customHeight="1">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" ht="20" customHeight="1">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" ht="20" customHeight="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" ht="20" customHeight="1">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" ht="20" customHeight="1">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="1:4" ht="20" customHeight="1">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" ht="20" customHeight="1">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" ht="20" customHeight="1">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" ht="20" customHeight="1">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" ht="20" customHeight="1">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" ht="20" customHeight="1">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:4" ht="20" customHeight="1">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4" ht="20" customHeight="1">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:4" ht="20" customHeight="1">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4" ht="20" customHeight="1">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4" ht="20" customHeight="1">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:4" ht="20" customHeight="1">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:4" ht="20" customHeight="1">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="1:4" ht="20" customHeight="1">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="1:4" ht="20" customHeight="1">
-      <c r="A71" s="4"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="1:4" ht="20" customHeight="1">
-      <c r="A72" s="4"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="1:4" ht="20" customHeight="1">
-      <c r="A73" s="4"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4" ht="20" customHeight="1">
-      <c r="A74" s="4"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="C62" s="2">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="5">
+        <v>150</v>
+      </c>
+      <c r="F62" s="5">
+        <v>100</v>
+      </c>
+      <c r="G62" s="5">
+        <v>50</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I62" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J62" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="20" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="5">
+        <v>150</v>
+      </c>
+      <c r="F63" s="5">
+        <v>100</v>
+      </c>
+      <c r="G63" s="5">
+        <v>50</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I63" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J63" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="20" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="2">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="5">
+        <v>150</v>
+      </c>
+      <c r="F64" s="5">
+        <v>100</v>
+      </c>
+      <c r="G64" s="5">
+        <v>50</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I64" s="2">
+        <v>20480</v>
+      </c>
+      <c r="J64" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="20" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="2">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="5">
+        <v>300</v>
+      </c>
+      <c r="F65" s="5">
+        <v>200</v>
+      </c>
+      <c r="G65" s="5">
+        <v>100</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I65" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J65" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="20" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="2">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="5">
+        <v>300</v>
+      </c>
+      <c r="F66" s="5">
+        <v>200</v>
+      </c>
+      <c r="G66" s="5">
+        <v>100</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I66" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J66" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="20" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="2">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="5">
+        <v>300</v>
+      </c>
+      <c r="F67" s="5">
+        <v>200</v>
+      </c>
+      <c r="G67" s="5">
+        <v>100</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I67" s="2">
+        <v>81920</v>
+      </c>
+      <c r="J67" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="20" customHeight="1">
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:10" ht="20" customHeight="1">
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:10" ht="20" customHeight="1">
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:10" ht="20" customHeight="1">
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:10" ht="20" customHeight="1">
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:10" ht="20" customHeight="1">
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:10" ht="20" customHeight="1">
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4595,10 +6251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4607,569 +6263,677 @@
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B11" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2">
-        <v>120</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B15" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>160</v>
-      </c>
-      <c r="C5" s="2">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2">
-        <v>200</v>
-      </c>
-      <c r="C6" s="2">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2">
-        <v>600</v>
-      </c>
-      <c r="C7" s="2">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2">
-        <v>800</v>
-      </c>
-      <c r="C8" s="2">
-        <v>40</v>
-      </c>
-      <c r="D8" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C9" s="2">
-        <v>47</v>
-      </c>
-      <c r="D9" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C10" s="2">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C11" s="2">
-        <v>62</v>
-      </c>
-      <c r="D11" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C12" s="2">
-        <v>69</v>
-      </c>
-      <c r="D12" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2400</v>
-      </c>
-      <c r="C13" s="2">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2800</v>
-      </c>
-      <c r="C14" s="2">
-        <v>82</v>
-      </c>
-      <c r="D14" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3200</v>
-      </c>
-      <c r="C15" s="2">
-        <v>88</v>
-      </c>
-      <c r="D15" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C16" s="2">
-        <v>99</v>
-      </c>
-      <c r="D16" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="B17" s="2">
-        <v>4800</v>
-      </c>
-      <c r="C17" s="2">
-        <v>106</v>
-      </c>
-      <c r="D17" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>5600</v>
-      </c>
-      <c r="C18" s="2">
-        <v>113</v>
-      </c>
-      <c r="D18" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>6400</v>
-      </c>
-      <c r="C19" s="2">
-        <v>119</v>
-      </c>
-      <c r="D19" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="2">
-        <v>7200</v>
-      </c>
-      <c r="C20" s="2">
-        <v>126</v>
-      </c>
-      <c r="D20" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="2">
-        <v>8000</v>
-      </c>
-      <c r="C21" s="5">
-        <v>132</v>
-      </c>
-      <c r="D21" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="A22" s="4"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:2" ht="20" customHeight="1">
+      <c r="A23" s="4"/>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="24" spans="1:2" ht="20" customHeight="1">
+      <c r="A24" s="4"/>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:2" ht="20" customHeight="1">
+      <c r="A25" s="4"/>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:2" ht="20" customHeight="1">
+      <c r="A26" s="4"/>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:2" ht="20" customHeight="1">
+      <c r="A27" s="4"/>
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+    <row r="28" spans="1:2" ht="20" customHeight="1">
+      <c r="A28" s="4"/>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:2" ht="20" customHeight="1">
+      <c r="A29" s="4"/>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:2" ht="20" customHeight="1">
+      <c r="A30" s="4"/>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:2" ht="20" customHeight="1">
+      <c r="A31" s="4"/>
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+    <row r="32" spans="1:2" ht="20" customHeight="1">
+      <c r="A32" s="4"/>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="1:2" ht="20" customHeight="1">
+    <row r="33" spans="1:5" ht="20" customHeight="1">
+      <c r="A33" s="4"/>
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="1:2" ht="20" customHeight="1">
+    <row r="34" spans="1:5" ht="20" customHeight="1">
+      <c r="A34" s="4"/>
       <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2" ht="20" customHeight="1">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1">
+      <c r="A35" s="4"/>
       <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" ht="20" customHeight="1">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1">
+      <c r="A36" s="4"/>
       <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:2" ht="20" customHeight="1">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1">
+      <c r="A37" s="4"/>
       <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:2" ht="20" customHeight="1">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1">
+      <c r="A38" s="4"/>
       <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:2" ht="20" customHeight="1">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1">
+      <c r="A39" s="4"/>
       <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:2" ht="20" customHeight="1">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1">
+      <c r="A40" s="4"/>
       <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:2" ht="20" customHeight="1">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1">
+      <c r="A41" s="4"/>
       <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:2" ht="20" customHeight="1">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1">
+      <c r="A42" s="4"/>
       <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:2" ht="20" customHeight="1">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1">
+      <c r="A43" s="4"/>
       <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:2" ht="20" customHeight="1">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" ht="20" customHeight="1">
+      <c r="A44" s="4"/>
       <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:2" ht="20" customHeight="1">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" ht="20" customHeight="1">
+      <c r="A45" s="4"/>
       <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:2" ht="20" customHeight="1">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" ht="20" customHeight="1">
+      <c r="A46" s="4"/>
       <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:2" ht="20" customHeight="1">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" ht="20" customHeight="1">
+      <c r="A47" s="4"/>
       <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:2" ht="20" customHeight="1">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" ht="20" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:2" ht="20" customHeight="1">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" ht="20" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="1:2" ht="20" customHeight="1">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" ht="20" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="1:2" ht="20" customHeight="1">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="1:2" ht="20" customHeight="1">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="1:2" ht="20" customHeight="1">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" ht="20" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:2" ht="20" customHeight="1">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" ht="20" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:2" ht="20" customHeight="1">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" ht="20" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
-    </row>
-    <row r="56" spans="1:2" ht="20" customHeight="1">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" ht="20" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
-    </row>
-    <row r="57" spans="1:2" ht="20" customHeight="1">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="1:5" ht="20" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:2" ht="20" customHeight="1">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" ht="20" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
-    </row>
-    <row r="59" spans="1:2" ht="20" customHeight="1">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" ht="20" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="1:2" ht="20" customHeight="1">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" ht="20" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="1:2" ht="20" customHeight="1">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" ht="20" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="1:2" ht="20" customHeight="1">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" ht="20" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
-    </row>
-    <row r="63" spans="1:2" ht="20" customHeight="1">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" ht="20" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
-    </row>
-    <row r="64" spans="1:2" ht="20" customHeight="1">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" ht="20" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
-    </row>
-    <row r="65" spans="1:2" ht="20" customHeight="1">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" ht="20" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
-    </row>
-    <row r="66" spans="1:2" ht="20" customHeight="1">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" ht="20" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
-    </row>
-    <row r="67" spans="1:2" ht="20" customHeight="1">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5" ht="20" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
-    </row>
-    <row r="68" spans="1:2" ht="20" customHeight="1">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:5" ht="20" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
-    </row>
-    <row r="69" spans="1:2" ht="20" customHeight="1">
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:5" ht="20" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
-    </row>
-    <row r="70" spans="1:2" ht="20" customHeight="1">
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" ht="20" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
-    </row>
-    <row r="71" spans="1:2" ht="20" customHeight="1">
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" ht="20" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
-    </row>
-    <row r="72" spans="1:2" ht="20" customHeight="1">
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:5" ht="20" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
-    </row>
-    <row r="73" spans="1:2" ht="20" customHeight="1">
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" ht="20" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
-    </row>
-    <row r="74" spans="1:2" ht="20" customHeight="1">
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" ht="20" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
-    </row>
-    <row r="75" spans="1:2" ht="20" customHeight="1">
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5" ht="20" customHeight="1">
+      <c r="A75" s="4"/>
       <c r="B75" s="5"/>
-    </row>
-    <row r="76" spans="1:2" ht="20" customHeight="1">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" ht="20" customHeight="1">
+      <c r="A76" s="4"/>
       <c r="B76" s="5"/>
-    </row>
-    <row r="77" spans="1:2" ht="20" customHeight="1">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5" ht="20" customHeight="1">
+      <c r="A77" s="4"/>
       <c r="B77" s="5"/>
-    </row>
-    <row r="78" spans="1:2" ht="20" customHeight="1">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" ht="20" customHeight="1">
+      <c r="A78" s="4"/>
       <c r="B78" s="5"/>
-    </row>
-    <row r="79" spans="1:2" ht="20" customHeight="1">
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" ht="20" customHeight="1">
+      <c r="A79" s="4"/>
       <c r="B79" s="5"/>
-    </row>
-    <row r="80" spans="1:2" ht="20" customHeight="1">
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:5" ht="20" customHeight="1">
+      <c r="A80" s="4"/>
       <c r="B80" s="5"/>
-    </row>
-    <row r="81" spans="2:2" ht="20" customHeight="1">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:5" ht="20" customHeight="1">
+      <c r="A81" s="4"/>
       <c r="B81" s="5"/>
-    </row>
-    <row r="82" spans="2:2" ht="20" customHeight="1">
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="1:5" ht="20" customHeight="1">
+      <c r="A82" s="4"/>
       <c r="B82" s="5"/>
-    </row>
-    <row r="83" spans="2:2" ht="20" customHeight="1">
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" ht="20" customHeight="1">
+      <c r="A83" s="4"/>
       <c r="B83" s="5"/>
-    </row>
-    <row r="84" spans="2:2" ht="20" customHeight="1">
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:5" ht="20" customHeight="1">
+      <c r="A84" s="4"/>
       <c r="B84" s="5"/>
-    </row>
-    <row r="85" spans="2:2" ht="20" customHeight="1">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" ht="20" customHeight="1">
+      <c r="A85" s="4"/>
       <c r="B85" s="5"/>
-    </row>
-    <row r="86" spans="2:2" ht="20" customHeight="1">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="1:5" ht="20" customHeight="1">
+      <c r="A86" s="4"/>
       <c r="B86" s="5"/>
-    </row>
-    <row r="87" spans="2:2" ht="20" customHeight="1">
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:5" ht="20" customHeight="1">
+      <c r="A87" s="4"/>
       <c r="B87" s="5"/>
-    </row>
-    <row r="88" spans="2:2" ht="20" customHeight="1">
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="1:5" ht="20" customHeight="1">
+      <c r="A88" s="4"/>
       <c r="B88" s="5"/>
-    </row>
-    <row r="89" spans="2:2" ht="20" customHeight="1">
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" spans="1:5" ht="20" customHeight="1">
+      <c r="A89" s="4"/>
       <c r="B89" s="5"/>
-    </row>
-    <row r="90" spans="2:2" ht="20" customHeight="1">
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" spans="1:5" ht="20" customHeight="1">
+      <c r="A90" s="4"/>
       <c r="B90" s="5"/>
-    </row>
-    <row r="91" spans="2:2" ht="20" customHeight="1">
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" spans="1:5" ht="20" customHeight="1">
+      <c r="A91" s="4"/>
       <c r="B91" s="5"/>
-    </row>
-    <row r="92" spans="2:2" ht="20" customHeight="1">
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="1:5" ht="20" customHeight="1">
+      <c r="A92" s="4"/>
       <c r="B92" s="5"/>
-    </row>
-    <row r="93" spans="2:2" ht="20" customHeight="1">
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" spans="1:5" ht="20" customHeight="1">
+      <c r="A93" s="4"/>
       <c r="B93" s="5"/>
-    </row>
-    <row r="94" spans="2:2" ht="20" customHeight="1">
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94" spans="1:5" ht="20" customHeight="1">
+      <c r="A94" s="4"/>
       <c r="B94" s="5"/>
-    </row>
-    <row r="95" spans="2:2" ht="20" customHeight="1">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="1:5" ht="20" customHeight="1">
+      <c r="A95" s="4"/>
       <c r="B95" s="5"/>
-    </row>
-    <row r="96" spans="2:2" ht="20" customHeight="1">
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" spans="1:5" ht="20" customHeight="1">
+      <c r="A96" s="4"/>
       <c r="B96" s="5"/>
-    </row>
-    <row r="97" spans="2:2" ht="20" customHeight="1">
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" spans="1:5" ht="20" customHeight="1">
+      <c r="A97" s="4"/>
       <c r="B97" s="5"/>
-    </row>
-    <row r="98" spans="2:2" ht="20" customHeight="1">
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="1:5" ht="20" customHeight="1">
+      <c r="A98" s="4"/>
       <c r="B98" s="5"/>
-    </row>
-    <row r="99" spans="2:2" ht="20" customHeight="1">
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="1:5" ht="20" customHeight="1">
+      <c r="A99" s="4"/>
       <c r="B99" s="5"/>
-    </row>
-    <row r="100" spans="2:2" ht="20" customHeight="1">
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100" spans="1:5" ht="20" customHeight="1">
+      <c r="A100" s="4"/>
       <c r="B100" s="5"/>
-    </row>
-    <row r="101" spans="2:2" ht="20" customHeight="1">
-      <c r="B101" s="5"/>
-    </row>
-    <row r="102" spans="2:2" ht="20" customHeight="1">
-      <c r="B102" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5185,15 +6949,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="17.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -5213,198 +6978,198 @@
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>40</v>
       </c>
       <c r="C2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
         <v>12</v>
-      </c>
-      <c r="D2" s="2">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>40</v>
       </c>
       <c r="C3" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
         <v>16</v>
-      </c>
-      <c r="D3" s="2">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2">
         <v>120</v>
       </c>
       <c r="C4" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2">
         <v>160</v>
       </c>
       <c r="C5" s="2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2">
         <v>200</v>
       </c>
       <c r="C6" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2">
         <v>600</v>
       </c>
       <c r="C7" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2">
         <v>800</v>
       </c>
       <c r="C8" s="2">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2">
         <v>1000</v>
       </c>
       <c r="C9" s="2">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
         <v>1200</v>
       </c>
       <c r="C10" s="2">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2">
         <v>1600</v>
       </c>
       <c r="C11" s="2">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2">
         <v>2000</v>
       </c>
       <c r="C12" s="2">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2">
         <v>2400</v>
       </c>
       <c r="C13" s="2">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2">
         <v>2800</v>
       </c>
       <c r="C14" s="2">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
         <v>3200</v>
       </c>
       <c r="C15" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -5415,10 +7180,10 @@
         <v>4000</v>
       </c>
       <c r="C16" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -5429,10 +7194,10 @@
         <v>4800</v>
       </c>
       <c r="C17" s="2">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -5443,10 +7208,10 @@
         <v>5600</v>
       </c>
       <c r="C18" s="2">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -5457,10 +7222,10 @@
         <v>6400</v>
       </c>
       <c r="C19" s="2">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -5471,10 +7236,10 @@
         <v>7200</v>
       </c>
       <c r="C20" s="2">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -5484,140 +7249,17 @@
       <c r="B21" s="2">
         <v>8000</v>
       </c>
-      <c r="C21" s="5">
-        <v>132</v>
-      </c>
-      <c r="D21" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" ht="20" customHeight="1">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" ht="20" customHeight="1">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" ht="20" customHeight="1">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" ht="20" customHeight="1">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="C21" s="2">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2">
+        <v>120</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
       <c r="A48" s="4"/>
@@ -5780,146 +7422,6 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="1:4" ht="20" customHeight="1">
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="1:4" ht="20" customHeight="1">
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="1:4" ht="20" customHeight="1">
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="1:4" ht="20" customHeight="1">
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="1:4" ht="20" customHeight="1">
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-    </row>
-    <row r="80" spans="1:4" ht="20" customHeight="1">
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-    </row>
-    <row r="81" spans="2:4" ht="20" customHeight="1">
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-    </row>
-    <row r="82" spans="2:4" ht="20" customHeight="1">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-    </row>
-    <row r="83" spans="2:4" ht="20" customHeight="1">
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-    </row>
-    <row r="84" spans="2:4" ht="20" customHeight="1">
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-    </row>
-    <row r="85" spans="2:4" ht="20" customHeight="1">
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-    </row>
-    <row r="86" spans="2:4" ht="20" customHeight="1">
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-    </row>
-    <row r="87" spans="2:4" ht="20" customHeight="1">
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-    </row>
-    <row r="88" spans="2:4" ht="20" customHeight="1">
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-    </row>
-    <row r="89" spans="2:4" ht="20" customHeight="1">
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-    </row>
-    <row r="90" spans="2:4" ht="20" customHeight="1">
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-    </row>
-    <row r="91" spans="2:4" ht="20" customHeight="1">
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-    </row>
-    <row r="92" spans="2:4" ht="20" customHeight="1">
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-    </row>
-    <row r="93" spans="2:4" ht="20" customHeight="1">
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-    </row>
-    <row r="94" spans="2:4" ht="20" customHeight="1">
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-    </row>
-    <row r="95" spans="2:4" ht="20" customHeight="1">
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-    </row>
-    <row r="96" spans="2:4" ht="20" customHeight="1">
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="2:4" ht="20" customHeight="1">
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="2:4" ht="20" customHeight="1">
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="2:4" ht="20" customHeight="1">
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-    </row>
-    <row r="100" spans="2:4" ht="20" customHeight="1">
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-    </row>
-    <row r="101" spans="2:4" ht="20" customHeight="1">
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-    </row>
-    <row r="102" spans="2:4" ht="20" customHeight="1">
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5938,7 +7440,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5963,254 +7465,282 @@
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
       </c>
       <c r="D2" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="C5" s="2">
         <v>22</v>
       </c>
       <c r="D5" s="2">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="C6" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="C7" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="C8" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="C9" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="C10" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="C11" s="2">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="2">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2">
         <v>47</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2800</v>
-      </c>
-      <c r="C12" s="2">
-        <v>52</v>
-      </c>
-      <c r="D12" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="C13" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="C14" s="2">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2">
-        <v>108</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2">
-        <v>4800</v>
+        <v>3200</v>
       </c>
       <c r="C15" s="2">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D15" s="2">
-        <v>116</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2">
-        <v>5600</v>
+        <v>4000</v>
       </c>
       <c r="C16" s="2">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2">
-        <v>123</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2">
-        <v>6400</v>
+        <v>4800</v>
       </c>
       <c r="C17" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D17" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2">
-        <v>7200</v>
+        <v>5600</v>
       </c>
       <c r="C18" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D18" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6400</v>
+      </c>
+      <c r="C19" s="2">
+        <v>119</v>
+      </c>
+      <c r="D19" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7200</v>
+      </c>
+      <c r="C20" s="2">
+        <v>126</v>
+      </c>
+      <c r="D20" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B21" s="2">
         <v>8000</v>
       </c>
-      <c r="C19" s="2">
-        <v>85</v>
-      </c>
-      <c r="D19" s="2">
-        <v>144</v>
+      <c r="C21" s="5">
+        <v>132</v>
+      </c>
+      <c r="D21" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -6496,6 +8026,1318 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="17.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="20.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2">
+        <v>120</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>160</v>
+      </c>
+      <c r="C5" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2">
+        <v>200</v>
+      </c>
+      <c r="C6" s="2">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2">
+        <v>600</v>
+      </c>
+      <c r="C7" s="2">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2">
+        <v>800</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C10" s="2">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C11" s="2">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="2">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2400</v>
+      </c>
+      <c r="C13" s="2">
+        <v>75</v>
+      </c>
+      <c r="D13" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2800</v>
+      </c>
+      <c r="C14" s="2">
+        <v>82</v>
+      </c>
+      <c r="D14" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3200</v>
+      </c>
+      <c r="C15" s="2">
+        <v>88</v>
+      </c>
+      <c r="D15" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>99</v>
+      </c>
+      <c r="D16" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4800</v>
+      </c>
+      <c r="C17" s="2">
+        <v>106</v>
+      </c>
+      <c r="D17" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5600</v>
+      </c>
+      <c r="C18" s="2">
+        <v>113</v>
+      </c>
+      <c r="D18" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6400</v>
+      </c>
+      <c r="C19" s="2">
+        <v>119</v>
+      </c>
+      <c r="D19" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7200</v>
+      </c>
+      <c r="C20" s="2">
+        <v>126</v>
+      </c>
+      <c r="D20" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="2">
+        <v>8000</v>
+      </c>
+      <c r="C21" s="5">
+        <v>132</v>
+      </c>
+      <c r="D21" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" ht="20" customHeight="1">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" ht="20" customHeight="1">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" ht="20" customHeight="1">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" ht="20" customHeight="1">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" ht="20" customHeight="1">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" ht="20" customHeight="1">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" ht="20" customHeight="1">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" ht="20" customHeight="1">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" ht="20" customHeight="1">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" ht="20" customHeight="1">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" ht="20" customHeight="1">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" ht="20" customHeight="1">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" ht="20" customHeight="1">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" ht="20" customHeight="1">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" ht="20" customHeight="1">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" ht="20" customHeight="1">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" ht="20" customHeight="1">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" ht="20" customHeight="1">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" ht="20" customHeight="1">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" ht="20" customHeight="1">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" ht="20" customHeight="1">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" ht="20" customHeight="1">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" ht="20" customHeight="1">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" ht="20" customHeight="1">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" ht="20" customHeight="1">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" ht="20" customHeight="1">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" ht="20" customHeight="1">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" ht="20" customHeight="1">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" ht="20" customHeight="1">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" ht="20" customHeight="1">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" ht="20" customHeight="1">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" ht="20" customHeight="1">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" ht="20" customHeight="1">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" ht="20" customHeight="1">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" ht="20" customHeight="1">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" ht="20" customHeight="1">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" ht="20" customHeight="1">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" ht="20" customHeight="1">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" ht="20" customHeight="1">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" ht="20" customHeight="1">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" ht="20" customHeight="1">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" ht="20" customHeight="1">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" ht="20" customHeight="1">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" ht="20" customHeight="1">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" ht="20" customHeight="1">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" ht="20" customHeight="1">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" ht="20" customHeight="1">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="2:4" ht="20" customHeight="1">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="2:4" ht="20" customHeight="1">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="2:4" ht="20" customHeight="1">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="2:4" ht="20" customHeight="1">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="2:4" ht="20" customHeight="1">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="2:4" ht="20" customHeight="1">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="2:4" ht="20" customHeight="1">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="2:4" ht="20" customHeight="1">
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="2:4" ht="20" customHeight="1">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="2:4" ht="20" customHeight="1">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="2:4" ht="20" customHeight="1">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="2:4" ht="20" customHeight="1">
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="2:4" ht="20" customHeight="1">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="2:4" ht="20" customHeight="1">
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="2:4" ht="20" customHeight="1">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="2:4" ht="20" customHeight="1">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="2:4" ht="20" customHeight="1">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="2:4" ht="20" customHeight="1">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="2:4" ht="20" customHeight="1">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="2:4" ht="20" customHeight="1">
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="2:4" ht="20" customHeight="1">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="2:4" ht="20" customHeight="1">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="17.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="20.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2">
+        <v>120</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2">
+        <v>160</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2">
+        <v>200</v>
+      </c>
+      <c r="C4" s="2">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>600</v>
+      </c>
+      <c r="C5" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2">
+        <v>800</v>
+      </c>
+      <c r="C6" s="2">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C8" s="2">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2400</v>
+      </c>
+      <c r="C11" s="2">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2800</v>
+      </c>
+      <c r="C12" s="2">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3200</v>
+      </c>
+      <c r="C13" s="2">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C14" s="2">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4800</v>
+      </c>
+      <c r="C15" s="2">
+        <v>68</v>
+      </c>
+      <c r="D15" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5600</v>
+      </c>
+      <c r="C16" s="2">
+        <v>72</v>
+      </c>
+      <c r="D16" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6400</v>
+      </c>
+      <c r="C17" s="2">
+        <v>76</v>
+      </c>
+      <c r="D17" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7200</v>
+      </c>
+      <c r="C18" s="2">
+        <v>80</v>
+      </c>
+      <c r="D18" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8000</v>
+      </c>
+      <c r="C19" s="2">
+        <v>85</v>
+      </c>
+      <c r="D19" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2" ht="20" customHeight="1">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:2" ht="20" customHeight="1">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:2" ht="20" customHeight="1">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2" ht="20" customHeight="1">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2" ht="20" customHeight="1">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:2" ht="20" customHeight="1">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" ht="20" customHeight="1">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:2" ht="20" customHeight="1">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:2" ht="20" customHeight="1">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:2" ht="20" customHeight="1">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:2" ht="20" customHeight="1">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:2" ht="20" customHeight="1">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:2" ht="20" customHeight="1">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:2" ht="20" customHeight="1">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:2" ht="20" customHeight="1">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2" ht="20" customHeight="1">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:2" ht="20" customHeight="1">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:2" ht="20" customHeight="1">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:2" ht="20" customHeight="1">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:2" ht="20" customHeight="1">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2" ht="20" customHeight="1">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:2" ht="20" customHeight="1">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:2" ht="20" customHeight="1">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2" ht="20" customHeight="1">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:2" ht="20" customHeight="1">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2" ht="20" customHeight="1">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2" ht="20" customHeight="1">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" ht="20" customHeight="1">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" ht="20" customHeight="1">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:2" ht="20" customHeight="1">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:2" ht="20" customHeight="1">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:2" ht="20" customHeight="1">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="1:2" ht="20" customHeight="1">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:2" ht="20" customHeight="1">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:2" ht="20" customHeight="1">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="1:2" ht="20" customHeight="1">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="1:2" ht="20" customHeight="1">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="1:2" ht="20" customHeight="1">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:2" ht="20" customHeight="1">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:2" ht="20" customHeight="1">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:2" ht="20" customHeight="1">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:2" ht="20" customHeight="1">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="1:2" ht="20" customHeight="1">
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="1:2" ht="20" customHeight="1">
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:2" ht="20" customHeight="1">
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="1:2" ht="20" customHeight="1">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:2" ht="20" customHeight="1">
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:2" ht="20" customHeight="1">
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="2:2" ht="20" customHeight="1">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="2:2" ht="20" customHeight="1">
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="2:2" ht="20" customHeight="1">
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="2:2" ht="20" customHeight="1">
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="2:2" ht="20" customHeight="1">
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="2:2" ht="20" customHeight="1">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="2:2" ht="20" customHeight="1">
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="2:2" ht="20" customHeight="1">
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="2:2" ht="20" customHeight="1">
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="2:2" ht="20" customHeight="1">
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="2:2" ht="20" customHeight="1">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="2:2" ht="20" customHeight="1">
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="2:2" ht="20" customHeight="1">
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="2:2" ht="20" customHeight="1">
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="2:2" ht="20" customHeight="1">
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="2:2" ht="20" customHeight="1">
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="2:2" ht="20" customHeight="1">
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="2:2" ht="20" customHeight="1">
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="2:2" ht="20" customHeight="1">
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="2:2" ht="20" customHeight="1">
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="2:2" ht="20" customHeight="1">
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="2:2" ht="20" customHeight="1">
+      <c r="B102" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
@@ -7059,7 +9901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
@@ -7781,2913 +10623,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="2" width="17.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="2"/>
-    <col min="4" max="4" width="27" style="2" customWidth="1"/>
-    <col min="5" max="7" width="17.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="20.6640625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="2">
-        <v>320</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="2">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="2">
-        <v>320</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="2">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="2">
-        <v>320</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="2">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1280</v>
-      </c>
-      <c r="J5" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="2">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1280</v>
-      </c>
-      <c r="J6" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="2">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1280</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="2">
-        <v>75</v>
-      </c>
-      <c r="F8" s="2">
-        <v>50</v>
-      </c>
-      <c r="G8" s="2">
-        <v>25</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="2">
-        <v>5120</v>
-      </c>
-      <c r="J8" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="2">
-        <v>75</v>
-      </c>
-      <c r="F9" s="2">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2">
-        <v>25</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5120</v>
-      </c>
-      <c r="J9" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="2">
-        <v>75</v>
-      </c>
-      <c r="F10" s="2">
-        <v>50</v>
-      </c>
-      <c r="G10" s="2">
-        <v>25</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="2">
-        <v>5120</v>
-      </c>
-      <c r="J10" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="2">
-        <v>150</v>
-      </c>
-      <c r="F11" s="2">
-        <v>100</v>
-      </c>
-      <c r="G11" s="2">
-        <v>50</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="2">
-        <v>20480</v>
-      </c>
-      <c r="J11" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="2">
-        <v>150</v>
-      </c>
-      <c r="F12" s="2">
-        <v>100</v>
-      </c>
-      <c r="G12" s="2">
-        <v>50</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="2">
-        <v>20480</v>
-      </c>
-      <c r="J12" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="2">
-        <v>150</v>
-      </c>
-      <c r="F13" s="2">
-        <v>100</v>
-      </c>
-      <c r="G13" s="2">
-        <v>50</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="2">
-        <v>20480</v>
-      </c>
-      <c r="J13" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="2">
-        <v>300</v>
-      </c>
-      <c r="F14" s="2">
-        <v>200</v>
-      </c>
-      <c r="G14" s="2">
-        <v>100</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="2">
-        <v>81920</v>
-      </c>
-      <c r="J14" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="2">
-        <v>300</v>
-      </c>
-      <c r="F15" s="2">
-        <v>200</v>
-      </c>
-      <c r="G15" s="2">
-        <v>100</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="2">
-        <v>81920</v>
-      </c>
-      <c r="J15" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="2">
-        <v>300</v>
-      </c>
-      <c r="F16" s="2">
-        <v>200</v>
-      </c>
-      <c r="G16" s="2">
-        <v>100</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="2">
-        <v>81920</v>
-      </c>
-      <c r="J16" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="2">
-        <v>30</v>
-      </c>
-      <c r="F17" s="2">
-        <v>20</v>
-      </c>
-      <c r="G17" s="2">
-        <v>10</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1280</v>
-      </c>
-      <c r="J17" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="2">
-        <v>30</v>
-      </c>
-      <c r="F18" s="2">
-        <v>20</v>
-      </c>
-      <c r="G18" s="2">
-        <v>10</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1280</v>
-      </c>
-      <c r="J18" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="2">
-        <v>30</v>
-      </c>
-      <c r="F19" s="2">
-        <v>20</v>
-      </c>
-      <c r="G19" s="2">
-        <v>10</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1280</v>
-      </c>
-      <c r="J19" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="20" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="2">
-        <v>75</v>
-      </c>
-      <c r="F20" s="2">
-        <v>50</v>
-      </c>
-      <c r="G20" s="2">
-        <v>25</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="2">
-        <v>5120</v>
-      </c>
-      <c r="J20" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="2">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="2">
-        <v>75</v>
-      </c>
-      <c r="F21" s="2">
-        <v>50</v>
-      </c>
-      <c r="G21" s="2">
-        <v>25</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" s="2">
-        <v>5120</v>
-      </c>
-      <c r="J21" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="20" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="2">
-        <v>75</v>
-      </c>
-      <c r="F22" s="2">
-        <v>50</v>
-      </c>
-      <c r="G22" s="2">
-        <v>25</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" s="2">
-        <v>5120</v>
-      </c>
-      <c r="J22" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="2">
-        <v>150</v>
-      </c>
-      <c r="F23" s="2">
-        <v>100</v>
-      </c>
-      <c r="G23" s="2">
-        <v>50</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" s="2">
-        <v>20480</v>
-      </c>
-      <c r="J23" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="20" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="2">
-        <v>150</v>
-      </c>
-      <c r="F24" s="2">
-        <v>100</v>
-      </c>
-      <c r="G24" s="2">
-        <v>50</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="2">
-        <v>20480</v>
-      </c>
-      <c r="J24" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="20" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="2">
-        <v>150</v>
-      </c>
-      <c r="F25" s="2">
-        <v>100</v>
-      </c>
-      <c r="G25" s="2">
-        <v>50</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I25" s="2">
-        <v>20480</v>
-      </c>
-      <c r="J25" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="20" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="2">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="2">
-        <v>300</v>
-      </c>
-      <c r="F26" s="2">
-        <v>200</v>
-      </c>
-      <c r="G26" s="2">
-        <v>100</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I26" s="2">
-        <v>81920</v>
-      </c>
-      <c r="J26" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="20" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="2">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="2">
-        <v>300</v>
-      </c>
-      <c r="F27" s="2">
-        <v>200</v>
-      </c>
-      <c r="G27" s="2">
-        <v>100</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I27" s="2">
-        <v>81920</v>
-      </c>
-      <c r="J27" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="20" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="2">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="2">
-        <v>300</v>
-      </c>
-      <c r="F28" s="2">
-        <v>200</v>
-      </c>
-      <c r="G28" s="2">
-        <v>100</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="2">
-        <v>81920</v>
-      </c>
-      <c r="J28" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="20" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="2">
-        <v>30</v>
-      </c>
-      <c r="F29" s="2">
-        <v>20</v>
-      </c>
-      <c r="G29" s="2">
-        <v>10</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1280</v>
-      </c>
-      <c r="J29" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="20" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="2">
-        <v>30</v>
-      </c>
-      <c r="F30" s="2">
-        <v>20</v>
-      </c>
-      <c r="G30" s="2">
-        <v>10</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" s="2">
-        <v>1280</v>
-      </c>
-      <c r="J30" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="20" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="2">
-        <v>30</v>
-      </c>
-      <c r="F31" s="2">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2">
-        <v>10</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" s="2">
-        <v>1280</v>
-      </c>
-      <c r="J31" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="20" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="2">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="2">
-        <v>75</v>
-      </c>
-      <c r="F32" s="2">
-        <v>50</v>
-      </c>
-      <c r="G32" s="2">
-        <v>25</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I32" s="2">
-        <v>5120</v>
-      </c>
-      <c r="J32" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="20" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="2">
-        <v>3</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" s="2">
-        <v>75</v>
-      </c>
-      <c r="F33" s="2">
-        <v>50</v>
-      </c>
-      <c r="G33" s="2">
-        <v>25</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I33" s="2">
-        <v>5120</v>
-      </c>
-      <c r="J33" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="20" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="2">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="2">
-        <v>75</v>
-      </c>
-      <c r="F34" s="2">
-        <v>50</v>
-      </c>
-      <c r="G34" s="2">
-        <v>25</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I34" s="2">
-        <v>5120</v>
-      </c>
-      <c r="J34" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="20" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="2">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="2">
-        <v>150</v>
-      </c>
-      <c r="F35" s="2">
-        <v>100</v>
-      </c>
-      <c r="G35" s="2">
-        <v>50</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I35" s="2">
-        <v>20480</v>
-      </c>
-      <c r="J35" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="20" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="2">
-        <v>4</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" s="2">
-        <v>150</v>
-      </c>
-      <c r="F36" s="2">
-        <v>100</v>
-      </c>
-      <c r="G36" s="2">
-        <v>50</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I36" s="2">
-        <v>20480</v>
-      </c>
-      <c r="J36" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="20" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="2">
-        <v>4</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="2">
-        <v>150</v>
-      </c>
-      <c r="F37" s="2">
-        <v>100</v>
-      </c>
-      <c r="G37" s="2">
-        <v>50</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I37" s="2">
-        <v>20480</v>
-      </c>
-      <c r="J37" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="20" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="2">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="2">
-        <v>300</v>
-      </c>
-      <c r="F38" s="2">
-        <v>200</v>
-      </c>
-      <c r="G38" s="2">
-        <v>100</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I38" s="2">
-        <v>81920</v>
-      </c>
-      <c r="J38" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="20" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="2">
-        <v>300</v>
-      </c>
-      <c r="F39" s="2">
-        <v>200</v>
-      </c>
-      <c r="G39" s="2">
-        <v>100</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I39" s="2">
-        <v>81920</v>
-      </c>
-      <c r="J39" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="20" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="2">
-        <v>5</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" s="2">
-        <v>300</v>
-      </c>
-      <c r="F40" s="2">
-        <v>200</v>
-      </c>
-      <c r="G40" s="2">
-        <v>100</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I40" s="2">
-        <v>81920</v>
-      </c>
-      <c r="J40" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="20" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="2">
-        <v>2</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" s="2">
-        <v>30</v>
-      </c>
-      <c r="F41" s="2">
-        <v>20</v>
-      </c>
-      <c r="G41" s="2">
-        <v>10</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I41" s="2">
-        <v>1280</v>
-      </c>
-      <c r="J41" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="20" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="2">
-        <v>2</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E42" s="2">
-        <v>30</v>
-      </c>
-      <c r="F42" s="2">
-        <v>20</v>
-      </c>
-      <c r="G42" s="2">
-        <v>10</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I42" s="2">
-        <v>1280</v>
-      </c>
-      <c r="J42" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="20" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="2">
-        <v>2</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E43" s="2">
-        <v>30</v>
-      </c>
-      <c r="F43" s="2">
-        <v>20</v>
-      </c>
-      <c r="G43" s="2">
-        <v>10</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I43" s="2">
-        <v>1280</v>
-      </c>
-      <c r="J43" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="20" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="2">
-        <v>3</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E44" s="2">
-        <v>75</v>
-      </c>
-      <c r="F44" s="2">
-        <v>50</v>
-      </c>
-      <c r="G44" s="2">
-        <v>25</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I44" s="2">
-        <v>5120</v>
-      </c>
-      <c r="J44" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="20" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="2">
-        <v>3</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E45" s="2">
-        <v>75</v>
-      </c>
-      <c r="F45" s="2">
-        <v>50</v>
-      </c>
-      <c r="G45" s="2">
-        <v>25</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I45" s="2">
-        <v>5120</v>
-      </c>
-      <c r="J45" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="20" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="2">
-        <v>3</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" s="2">
-        <v>75</v>
-      </c>
-      <c r="F46" s="2">
-        <v>50</v>
-      </c>
-      <c r="G46" s="2">
-        <v>25</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I46" s="2">
-        <v>5120</v>
-      </c>
-      <c r="J46" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="20" customHeight="1">
-      <c r="A47" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="2">
-        <v>4</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E47" s="3">
-        <v>150</v>
-      </c>
-      <c r="F47" s="3">
-        <v>100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>50</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I47" s="2">
-        <v>20480</v>
-      </c>
-      <c r="J47" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="20" customHeight="1">
-      <c r="A48" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="2">
-        <v>4</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E48" s="3">
-        <v>150</v>
-      </c>
-      <c r="F48" s="3">
-        <v>100</v>
-      </c>
-      <c r="G48" s="5">
-        <v>50</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I48" s="2">
-        <v>20480</v>
-      </c>
-      <c r="J48" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="20" customHeight="1">
-      <c r="A49" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="2">
-        <v>4</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E49" s="3">
-        <v>150</v>
-      </c>
-      <c r="F49" s="3">
-        <v>100</v>
-      </c>
-      <c r="G49" s="5">
-        <v>50</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I49" s="2">
-        <v>20480</v>
-      </c>
-      <c r="J49" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="20" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="2">
-        <v>5</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E50" s="5">
-        <v>300</v>
-      </c>
-      <c r="F50" s="5">
-        <v>200</v>
-      </c>
-      <c r="G50" s="5">
-        <v>100</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I50" s="2">
-        <v>81920</v>
-      </c>
-      <c r="J50" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="20" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="2">
-        <v>5</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E51" s="5">
-        <v>300</v>
-      </c>
-      <c r="F51" s="5">
-        <v>200</v>
-      </c>
-      <c r="G51" s="5">
-        <v>100</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I51" s="2">
-        <v>81920</v>
-      </c>
-      <c r="J51" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="20" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="2">
-        <v>5</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E52" s="5">
-        <v>300</v>
-      </c>
-      <c r="F52" s="5">
-        <v>200</v>
-      </c>
-      <c r="G52" s="5">
-        <v>100</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I52" s="2">
-        <v>81920</v>
-      </c>
-      <c r="J52" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="20" customHeight="1">
-      <c r="A53" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" s="5">
-        <v>15</v>
-      </c>
-      <c r="F53" s="5">
-        <v>10</v>
-      </c>
-      <c r="G53" s="5">
-        <v>5</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I53" s="2">
-        <v>320</v>
-      </c>
-      <c r="J53" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="20" customHeight="1">
-      <c r="A54" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E54" s="5">
-        <v>15</v>
-      </c>
-      <c r="F54" s="5">
-        <v>10</v>
-      </c>
-      <c r="G54" s="5">
-        <v>5</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I54" s="2">
-        <v>320</v>
-      </c>
-      <c r="J54" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="20" customHeight="1">
-      <c r="A55" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E55" s="5">
-        <v>15</v>
-      </c>
-      <c r="F55" s="5">
-        <v>10</v>
-      </c>
-      <c r="G55" s="5">
-        <v>5</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I55" s="2">
-        <v>320</v>
-      </c>
-      <c r="J55" s="2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="20" customHeight="1">
-      <c r="A56" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="2">
-        <v>2</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E56" s="5">
-        <v>30</v>
-      </c>
-      <c r="F56" s="5">
-        <v>20</v>
-      </c>
-      <c r="G56" s="5">
-        <v>10</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I56" s="2">
-        <v>1280</v>
-      </c>
-      <c r="J56" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="20" customHeight="1">
-      <c r="A57" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="2">
-        <v>2</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E57" s="5">
-        <v>30</v>
-      </c>
-      <c r="F57" s="5">
-        <v>20</v>
-      </c>
-      <c r="G57" s="5">
-        <v>10</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I57" s="2">
-        <v>1280</v>
-      </c>
-      <c r="J57" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="20" customHeight="1">
-      <c r="A58" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="2">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E58" s="5">
-        <v>30</v>
-      </c>
-      <c r="F58" s="5">
-        <v>20</v>
-      </c>
-      <c r="G58" s="5">
-        <v>10</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I58" s="2">
-        <v>1280</v>
-      </c>
-      <c r="J58" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="20" customHeight="1">
-      <c r="A59" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="2">
-        <v>3</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E59" s="5">
-        <v>75</v>
-      </c>
-      <c r="F59" s="5">
-        <v>50</v>
-      </c>
-      <c r="G59" s="5">
-        <v>25</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I59" s="2">
-        <v>5120</v>
-      </c>
-      <c r="J59" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="20" customHeight="1">
-      <c r="A60" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="2">
-        <v>3</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E60" s="5">
-        <v>75</v>
-      </c>
-      <c r="F60" s="5">
-        <v>50</v>
-      </c>
-      <c r="G60" s="5">
-        <v>25</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I60" s="2">
-        <v>5120</v>
-      </c>
-      <c r="J60" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="20" customHeight="1">
-      <c r="A61" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="2">
-        <v>3</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E61" s="5">
-        <v>75</v>
-      </c>
-      <c r="F61" s="5">
-        <v>50</v>
-      </c>
-      <c r="G61" s="5">
-        <v>25</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I61" s="2">
-        <v>5120</v>
-      </c>
-      <c r="J61" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="20" customHeight="1">
-      <c r="A62" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="2">
-        <v>4</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E62" s="5">
-        <v>150</v>
-      </c>
-      <c r="F62" s="5">
-        <v>100</v>
-      </c>
-      <c r="G62" s="5">
-        <v>50</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I62" s="2">
-        <v>20480</v>
-      </c>
-      <c r="J62" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="20" customHeight="1">
-      <c r="A63" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="2">
-        <v>4</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E63" s="5">
-        <v>150</v>
-      </c>
-      <c r="F63" s="5">
-        <v>100</v>
-      </c>
-      <c r="G63" s="5">
-        <v>50</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I63" s="2">
-        <v>20480</v>
-      </c>
-      <c r="J63" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="20" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" s="2">
-        <v>4</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E64" s="5">
-        <v>150</v>
-      </c>
-      <c r="F64" s="5">
-        <v>100</v>
-      </c>
-      <c r="G64" s="5">
-        <v>50</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I64" s="2">
-        <v>20480</v>
-      </c>
-      <c r="J64" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="20" customHeight="1">
-      <c r="A65" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="2">
-        <v>5</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E65" s="5">
-        <v>300</v>
-      </c>
-      <c r="F65" s="5">
-        <v>200</v>
-      </c>
-      <c r="G65" s="5">
-        <v>100</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I65" s="2">
-        <v>81920</v>
-      </c>
-      <c r="J65" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="20" customHeight="1">
-      <c r="A66" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="2">
-        <v>5</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E66" s="5">
-        <v>300</v>
-      </c>
-      <c r="F66" s="5">
-        <v>200</v>
-      </c>
-      <c r="G66" s="5">
-        <v>100</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I66" s="2">
-        <v>81920</v>
-      </c>
-      <c r="J66" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="20" customHeight="1">
-      <c r="A67" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="2">
-        <v>5</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E67" s="5">
-        <v>300</v>
-      </c>
-      <c r="F67" s="5">
-        <v>200</v>
-      </c>
-      <c r="G67" s="5">
-        <v>100</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I67" s="2">
-        <v>81920</v>
-      </c>
-      <c r="J67" s="2">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="20" customHeight="1">
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="1:10" ht="20" customHeight="1">
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:10" ht="20" customHeight="1">
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:10" ht="20" customHeight="1">
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:10" ht="20" customHeight="1">
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:10" ht="20" customHeight="1">
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:10" ht="20" customHeight="1">
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="2" width="17.6640625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="20.6640625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" ht="20" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" ht="20" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" ht="20" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:2" ht="20" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2" ht="20" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" ht="20" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2" ht="20" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:2" ht="20" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:2" ht="20" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" ht="20" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" ht="20" customHeight="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" ht="20" customHeight="1">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" ht="20" customHeight="1">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" ht="20" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" ht="20" customHeight="1">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" ht="20" customHeight="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" ht="20" customHeight="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" ht="20" customHeight="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" ht="20" customHeight="1">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" ht="20" customHeight="1">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" ht="20" customHeight="1">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" ht="20" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" ht="20" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" ht="20" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" ht="20" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" ht="20" customHeight="1">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" ht="20" customHeight="1">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" ht="20" customHeight="1">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="20" customHeight="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5" ht="20" customHeight="1">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" ht="20" customHeight="1">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="1:5" ht="20" customHeight="1">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="1:5" ht="20" customHeight="1">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5" ht="20" customHeight="1">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5" ht="20" customHeight="1">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="1:5" ht="20" customHeight="1">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="1:5" ht="20" customHeight="1">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="1:5" ht="20" customHeight="1">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="1:5" ht="20" customHeight="1">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="1:5" ht="20" customHeight="1">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="1:5" ht="20" customHeight="1">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:5" ht="20" customHeight="1">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:5" ht="20" customHeight="1">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:5" ht="20" customHeight="1">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:5" ht="20" customHeight="1">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="1:5" ht="20" customHeight="1">
-      <c r="A71" s="4"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="1:5" ht="20" customHeight="1">
-      <c r="A72" s="4"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="1:5" ht="20" customHeight="1">
-      <c r="A73" s="4"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="1:5" ht="20" customHeight="1">
-      <c r="A74" s="4"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75" spans="1:5" ht="20" customHeight="1">
-      <c r="A75" s="4"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76" spans="1:5" ht="20" customHeight="1">
-      <c r="A76" s="4"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-    </row>
-    <row r="77" spans="1:5" ht="20" customHeight="1">
-      <c r="A77" s="4"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78" spans="1:5" ht="20" customHeight="1">
-      <c r="A78" s="4"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="1:5" ht="20" customHeight="1">
-      <c r="A79" s="4"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-    </row>
-    <row r="80" spans="1:5" ht="20" customHeight="1">
-      <c r="A80" s="4"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="1:5" ht="20" customHeight="1">
-      <c r="A81" s="4"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-    </row>
-    <row r="82" spans="1:5" ht="20" customHeight="1">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-    </row>
-    <row r="83" spans="1:5" ht="20" customHeight="1">
-      <c r="A83" s="4"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-    </row>
-    <row r="84" spans="1:5" ht="20" customHeight="1">
-      <c r="A84" s="4"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85" spans="1:5" ht="20" customHeight="1">
-      <c r="A85" s="4"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86" spans="1:5" ht="20" customHeight="1">
-      <c r="A86" s="4"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87" spans="1:5" ht="20" customHeight="1">
-      <c r="A87" s="4"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-    </row>
-    <row r="88" spans="1:5" ht="20" customHeight="1">
-      <c r="A88" s="4"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-    </row>
-    <row r="89" spans="1:5" ht="20" customHeight="1">
-      <c r="A89" s="4"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-    </row>
-    <row r="90" spans="1:5" ht="20" customHeight="1">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-    </row>
-    <row r="91" spans="1:5" ht="20" customHeight="1">
-      <c r="A91" s="4"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-    </row>
-    <row r="92" spans="1:5" ht="20" customHeight="1">
-      <c r="A92" s="4"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-    </row>
-    <row r="93" spans="1:5" ht="20" customHeight="1">
-      <c r="A93" s="4"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-    </row>
-    <row r="94" spans="1:5" ht="20" customHeight="1">
-      <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-    </row>
-    <row r="95" spans="1:5" ht="20" customHeight="1">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-    </row>
-    <row r="96" spans="1:5" ht="20" customHeight="1">
-      <c r="A96" s="4"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-    </row>
-    <row r="97" spans="1:5" ht="20" customHeight="1">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-    </row>
-    <row r="98" spans="1:5" ht="20" customHeight="1">
-      <c r="A98" s="4"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99" spans="1:5" ht="20" customHeight="1">
-      <c r="A99" s="4"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-    </row>
-    <row r="100" spans="1:5" ht="20" customHeight="1">
-      <c r="A100" s="4"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/gameData/shared/DragonEquipments.xlsx
+++ b/gameData/shared/DragonEquipments.xlsx
@@ -656,10 +656,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>iron_1:1,redCrystal_1:1</t>
-  </si>
-  <si>
-    <t>iron_1:1,redCrystal_1:1</t>
+    <t>ingo_1:1,redCrystal_1:1</t>
+  </si>
+  <si>
+    <t>ingo_1:1,redCrystal_1:1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -841,7 +841,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1364">
+  <cellStyleXfs count="1368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -856,6 +856,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2229,7 +2233,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1364">
+  <cellStyles count="1368">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2914,6 +2918,8 @@
     <cellStyle name="超链接" xfId="1358" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1360" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1366" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3591,6 +3597,8 @@
     <cellStyle name="访问过的超链接" xfId="1359" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1361" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1367" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4042,8 +4050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C53" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C60" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/DragonEquipments.xlsx
+++ b/gameData/shared/DragonEquipments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="7"/>
+    <workbookView xWindow="6840" yWindow="2800" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="equipments" sheetId="62" r:id="rId1"/>
@@ -79,70 +79,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>addInfantryAtk</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>addInfantryHp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>addInfantryLoad</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>addInfantryMarch</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>addHunterAtk</t>
-  </si>
-  <si>
-    <t>addHunterHp</t>
-  </si>
-  <si>
-    <t>addHunterLoad</t>
-  </si>
-  <si>
-    <t>addHunterMarch</t>
-  </si>
-  <si>
-    <t>addCavalryAtk</t>
-  </si>
-  <si>
-    <t>addCavalryHp</t>
-  </si>
-  <si>
-    <t>addCavalryLoad</t>
-  </si>
-  <si>
-    <t>addCavalryMarch</t>
-  </si>
-  <si>
-    <t>addSiegeAtk</t>
-  </si>
-  <si>
-    <t>addSiegeHp</t>
-  </si>
-  <si>
-    <t>addSiegeLoad</t>
-  </si>
-  <si>
-    <t>addSiegeMarch</t>
-  </si>
-  <si>
-    <t>addCasualtyRate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>FLOAT_buffEffect</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>addMarchSize</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1_0</t>
   </si>
   <si>
@@ -664,6 +604,78 @@
   </si>
   <si>
     <t>INT_leadership</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryHpAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryMarchAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hHunterAtkAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunterHpAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunterLoadAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunterMarchAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryAtkAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryHpAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryLoadAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryMarchAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeAtkAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeHpAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeLoadAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeMarchAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>marchSizeAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>casualtyRateAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryAtkAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryLoadAdd</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -4108,48 +4120,48 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2">
         <v>15</v>
@@ -4161,7 +4173,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="I2" s="2">
         <v>320</v>
@@ -4172,16 +4184,16 @@
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2">
         <v>15</v>
@@ -4193,7 +4205,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="I3" s="2">
         <v>320</v>
@@ -4204,16 +4216,16 @@
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2">
         <v>15</v>
@@ -4225,7 +4237,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I4" s="2">
         <v>320</v>
@@ -4236,16 +4248,16 @@
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2">
         <v>30</v>
@@ -4257,7 +4269,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I5" s="2">
         <v>1280</v>
@@ -4268,16 +4280,16 @@
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2">
         <v>30</v>
@@ -4289,7 +4301,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I6" s="2">
         <v>1280</v>
@@ -4300,16 +4312,16 @@
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2">
         <v>30</v>
@@ -4321,7 +4333,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I7" s="2">
         <v>1280</v>
@@ -4332,16 +4344,16 @@
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2">
         <v>75</v>
@@ -4353,7 +4365,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I8" s="2">
         <v>5120</v>
@@ -4364,16 +4376,16 @@
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2">
         <v>75</v>
@@ -4385,7 +4397,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I9" s="2">
         <v>5120</v>
@@ -4396,16 +4408,16 @@
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2">
         <v>75</v>
@@ -4417,7 +4429,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I10" s="2">
         <v>5120</v>
@@ -4428,16 +4440,16 @@
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2">
         <v>150</v>
@@ -4449,7 +4461,7 @@
         <v>50</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I11" s="2">
         <v>20480</v>
@@ -4460,16 +4472,16 @@
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2">
         <v>150</v>
@@ -4481,7 +4493,7 @@
         <v>50</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I12" s="2">
         <v>20480</v>
@@ -4492,16 +4504,16 @@
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2">
         <v>150</v>
@@ -4513,7 +4525,7 @@
         <v>50</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I13" s="2">
         <v>20480</v>
@@ -4524,16 +4536,16 @@
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2">
         <v>300</v>
@@ -4545,7 +4557,7 @@
         <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I14" s="2">
         <v>81920</v>
@@ -4556,16 +4568,16 @@
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2">
         <v>300</v>
@@ -4577,7 +4589,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I15" s="2">
         <v>81920</v>
@@ -4588,16 +4600,16 @@
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2">
         <v>300</v>
@@ -4609,7 +4621,7 @@
         <v>100</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I16" s="2">
         <v>81920</v>
@@ -4620,16 +4632,16 @@
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2">
         <v>30</v>
@@ -4641,7 +4653,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I17" s="2">
         <v>1280</v>
@@ -4652,16 +4664,16 @@
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2">
         <v>30</v>
@@ -4673,7 +4685,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I18" s="2">
         <v>1280</v>
@@ -4684,16 +4696,16 @@
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2">
         <v>30</v>
@@ -4705,7 +4717,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I19" s="2">
         <v>1280</v>
@@ -4716,16 +4728,16 @@
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2">
         <v>75</v>
@@ -4737,7 +4749,7 @@
         <v>25</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I20" s="2">
         <v>5120</v>
@@ -4748,16 +4760,16 @@
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2">
         <v>75</v>
@@ -4769,7 +4781,7 @@
         <v>25</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I21" s="2">
         <v>5120</v>
@@ -4780,16 +4792,16 @@
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2">
         <v>75</v>
@@ -4801,7 +4813,7 @@
         <v>25</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I22" s="2">
         <v>5120</v>
@@ -4812,16 +4824,16 @@
     </row>
     <row r="23" spans="1:10" ht="20" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2">
         <v>150</v>
@@ -4833,7 +4845,7 @@
         <v>50</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I23" s="2">
         <v>20480</v>
@@ -4844,16 +4856,16 @@
     </row>
     <row r="24" spans="1:10" ht="20" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2">
         <v>150</v>
@@ -4865,7 +4877,7 @@
         <v>50</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I24" s="2">
         <v>20480</v>
@@ -4876,16 +4888,16 @@
     </row>
     <row r="25" spans="1:10" ht="20" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E25" s="2">
         <v>150</v>
@@ -4897,7 +4909,7 @@
         <v>50</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I25" s="2">
         <v>20480</v>
@@ -4908,16 +4920,16 @@
     </row>
     <row r="26" spans="1:10" ht="20" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2">
         <v>300</v>
@@ -4929,7 +4941,7 @@
         <v>100</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I26" s="2">
         <v>81920</v>
@@ -4940,16 +4952,16 @@
     </row>
     <row r="27" spans="1:10" ht="20" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2">
         <v>300</v>
@@ -4961,7 +4973,7 @@
         <v>100</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I27" s="2">
         <v>81920</v>
@@ -4972,16 +4984,16 @@
     </row>
     <row r="28" spans="1:10" ht="20" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2">
         <v>300</v>
@@ -4993,7 +5005,7 @@
         <v>100</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I28" s="2">
         <v>81920</v>
@@ -5004,16 +5016,16 @@
     </row>
     <row r="29" spans="1:10" ht="20" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2">
         <v>30</v>
@@ -5025,7 +5037,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I29" s="2">
         <v>1280</v>
@@ -5036,16 +5048,16 @@
     </row>
     <row r="30" spans="1:10" ht="20" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2">
         <v>30</v>
@@ -5057,7 +5069,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I30" s="2">
         <v>1280</v>
@@ -5068,16 +5080,16 @@
     </row>
     <row r="31" spans="1:10" ht="20" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2">
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2">
         <v>30</v>
@@ -5089,7 +5101,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I31" s="2">
         <v>1280</v>
@@ -5100,16 +5112,16 @@
     </row>
     <row r="32" spans="1:10" ht="20" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2">
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E32" s="2">
         <v>75</v>
@@ -5121,7 +5133,7 @@
         <v>25</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I32" s="2">
         <v>5120</v>
@@ -5132,16 +5144,16 @@
     </row>
     <row r="33" spans="1:10" ht="20" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E33" s="2">
         <v>75</v>
@@ -5153,7 +5165,7 @@
         <v>25</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I33" s="2">
         <v>5120</v>
@@ -5164,16 +5176,16 @@
     </row>
     <row r="34" spans="1:10" ht="20" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E34" s="2">
         <v>75</v>
@@ -5185,7 +5197,7 @@
         <v>25</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I34" s="2">
         <v>5120</v>
@@ -5196,16 +5208,16 @@
     </row>
     <row r="35" spans="1:10" ht="20" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2">
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E35" s="2">
         <v>150</v>
@@ -5217,7 +5229,7 @@
         <v>50</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I35" s="2">
         <v>20480</v>
@@ -5228,16 +5240,16 @@
     </row>
     <row r="36" spans="1:10" ht="20" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2">
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E36" s="2">
         <v>150</v>
@@ -5249,7 +5261,7 @@
         <v>50</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I36" s="2">
         <v>20480</v>
@@ -5260,16 +5272,16 @@
     </row>
     <row r="37" spans="1:10" ht="20" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2">
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E37" s="2">
         <v>150</v>
@@ -5281,7 +5293,7 @@
         <v>50</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I37" s="2">
         <v>20480</v>
@@ -5292,16 +5304,16 @@
     </row>
     <row r="38" spans="1:10" ht="20" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2">
         <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E38" s="2">
         <v>300</v>
@@ -5313,7 +5325,7 @@
         <v>100</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I38" s="2">
         <v>81920</v>
@@ -5324,16 +5336,16 @@
     </row>
     <row r="39" spans="1:10" ht="20" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2">
         <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E39" s="2">
         <v>300</v>
@@ -5345,7 +5357,7 @@
         <v>100</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I39" s="2">
         <v>81920</v>
@@ -5356,16 +5368,16 @@
     </row>
     <row r="40" spans="1:10" ht="20" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2">
         <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E40" s="2">
         <v>300</v>
@@ -5377,7 +5389,7 @@
         <v>100</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I40" s="2">
         <v>81920</v>
@@ -5388,16 +5400,16 @@
     </row>
     <row r="41" spans="1:10" ht="20" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2">
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E41" s="2">
         <v>30</v>
@@ -5409,7 +5421,7 @@
         <v>10</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I41" s="2">
         <v>1280</v>
@@ -5420,16 +5432,16 @@
     </row>
     <row r="42" spans="1:10" ht="20" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2">
         <v>30</v>
@@ -5441,7 +5453,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I42" s="2">
         <v>1280</v>
@@ -5452,16 +5464,16 @@
     </row>
     <row r="43" spans="1:10" ht="20" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E43" s="2">
         <v>30</v>
@@ -5473,7 +5485,7 @@
         <v>10</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I43" s="2">
         <v>1280</v>
@@ -5484,16 +5496,16 @@
     </row>
     <row r="44" spans="1:10" ht="20" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2">
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E44" s="2">
         <v>75</v>
@@ -5505,7 +5517,7 @@
         <v>25</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I44" s="2">
         <v>5120</v>
@@ -5516,16 +5528,16 @@
     </row>
     <row r="45" spans="1:10" ht="20" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2">
         <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E45" s="2">
         <v>75</v>
@@ -5537,7 +5549,7 @@
         <v>25</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I45" s="2">
         <v>5120</v>
@@ -5548,16 +5560,16 @@
     </row>
     <row r="46" spans="1:10" ht="20" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2">
         <v>3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E46" s="2">
         <v>75</v>
@@ -5569,7 +5581,7 @@
         <v>25</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I46" s="2">
         <v>5120</v>
@@ -5580,16 +5592,16 @@
     </row>
     <row r="47" spans="1:10" ht="20" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2">
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E47" s="3">
         <v>150</v>
@@ -5601,7 +5613,7 @@
         <v>50</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I47" s="2">
         <v>20480</v>
@@ -5612,16 +5624,16 @@
     </row>
     <row r="48" spans="1:10" ht="20" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C48" s="2">
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E48" s="3">
         <v>150</v>
@@ -5633,7 +5645,7 @@
         <v>50</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I48" s="2">
         <v>20480</v>
@@ -5644,16 +5656,16 @@
     </row>
     <row r="49" spans="1:10" ht="20" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2">
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E49" s="3">
         <v>150</v>
@@ -5665,7 +5677,7 @@
         <v>50</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I49" s="2">
         <v>20480</v>
@@ -5676,16 +5688,16 @@
     </row>
     <row r="50" spans="1:10" ht="20" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2">
         <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E50" s="5">
         <v>300</v>
@@ -5697,7 +5709,7 @@
         <v>100</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I50" s="2">
         <v>81920</v>
@@ -5708,16 +5720,16 @@
     </row>
     <row r="51" spans="1:10" ht="20" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C51" s="2">
         <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E51" s="5">
         <v>300</v>
@@ -5729,7 +5741,7 @@
         <v>100</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I51" s="2">
         <v>81920</v>
@@ -5740,16 +5752,16 @@
     </row>
     <row r="52" spans="1:10" ht="20" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C52" s="2">
         <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E52" s="5">
         <v>300</v>
@@ -5761,7 +5773,7 @@
         <v>100</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I52" s="2">
         <v>81920</v>
@@ -5772,16 +5784,16 @@
     </row>
     <row r="53" spans="1:10" ht="20" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E53" s="5">
         <v>15</v>
@@ -5793,7 +5805,7 @@
         <v>5</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I53" s="2">
         <v>320</v>
@@ -5804,16 +5816,16 @@
     </row>
     <row r="54" spans="1:10" ht="20" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E54" s="5">
         <v>15</v>
@@ -5825,7 +5837,7 @@
         <v>5</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I54" s="2">
         <v>320</v>
@@ -5836,16 +5848,16 @@
     </row>
     <row r="55" spans="1:10" ht="20" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E55" s="5">
         <v>15</v>
@@ -5857,7 +5869,7 @@
         <v>5</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I55" s="2">
         <v>320</v>
@@ -5868,16 +5880,16 @@
     </row>
     <row r="56" spans="1:10" ht="20" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C56" s="2">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E56" s="5">
         <v>30</v>
@@ -5889,7 +5901,7 @@
         <v>10</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I56" s="2">
         <v>1280</v>
@@ -5900,16 +5912,16 @@
     </row>
     <row r="57" spans="1:10" ht="20" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2">
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E57" s="5">
         <v>30</v>
@@ -5921,7 +5933,7 @@
         <v>10</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I57" s="2">
         <v>1280</v>
@@ -5932,16 +5944,16 @@
     </row>
     <row r="58" spans="1:10" ht="20" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C58" s="2">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E58" s="5">
         <v>30</v>
@@ -5953,7 +5965,7 @@
         <v>10</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I58" s="2">
         <v>1280</v>
@@ -5964,16 +5976,16 @@
     </row>
     <row r="59" spans="1:10" ht="20" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2">
         <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E59" s="5">
         <v>75</v>
@@ -5985,7 +5997,7 @@
         <v>25</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I59" s="2">
         <v>5120</v>
@@ -5996,16 +6008,16 @@
     </row>
     <row r="60" spans="1:10" ht="20" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2">
         <v>3</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E60" s="5">
         <v>75</v>
@@ -6017,7 +6029,7 @@
         <v>25</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I60" s="2">
         <v>5120</v>
@@ -6028,16 +6040,16 @@
     </row>
     <row r="61" spans="1:10" ht="20" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C61" s="2">
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E61" s="5">
         <v>75</v>
@@ -6049,7 +6061,7 @@
         <v>25</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I61" s="2">
         <v>5120</v>
@@ -6060,16 +6072,16 @@
     </row>
     <row r="62" spans="1:10" ht="20" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C62" s="2">
         <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E62" s="5">
         <v>150</v>
@@ -6081,7 +6093,7 @@
         <v>50</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I62" s="2">
         <v>20480</v>
@@ -6092,16 +6104,16 @@
     </row>
     <row r="63" spans="1:10" ht="20" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2">
         <v>4</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E63" s="5">
         <v>150</v>
@@ -6113,7 +6125,7 @@
         <v>50</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I63" s="2">
         <v>20480</v>
@@ -6124,16 +6136,16 @@
     </row>
     <row r="64" spans="1:10" ht="20" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C64" s="2">
         <v>4</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E64" s="5">
         <v>150</v>
@@ -6145,7 +6157,7 @@
         <v>50</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I64" s="2">
         <v>20480</v>
@@ -6156,16 +6168,16 @@
     </row>
     <row r="65" spans="1:10" ht="20" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2">
         <v>5</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E65" s="5">
         <v>300</v>
@@ -6177,7 +6189,7 @@
         <v>100</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I65" s="2">
         <v>81920</v>
@@ -6188,16 +6200,16 @@
     </row>
     <row r="66" spans="1:10" ht="20" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C66" s="2">
         <v>5</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E66" s="5">
         <v>300</v>
@@ -6209,7 +6221,7 @@
         <v>100</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I66" s="2">
         <v>81920</v>
@@ -6220,16 +6232,16 @@
     </row>
     <row r="67" spans="1:10" ht="20" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C67" s="2">
         <v>5</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E67" s="5">
         <v>300</v>
@@ -6241,7 +6253,7 @@
         <v>100</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I67" s="2">
         <v>81920</v>
@@ -6301,8 +6313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6316,12 +6328,12 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2">
         <v>0.02</v>
@@ -6329,7 +6341,7 @@
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2">
         <v>0.02</v>
@@ -6337,7 +6349,7 @@
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="B4" s="2">
         <v>0.02</v>
@@ -6345,7 +6357,7 @@
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="B5" s="2">
         <v>0.02</v>
@@ -6353,7 +6365,7 @@
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="B6" s="2">
         <v>0.02</v>
@@ -6361,7 +6373,7 @@
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="B7" s="2">
         <v>0.02</v>
@@ -6369,7 +6381,7 @@
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="B8" s="2">
         <v>0.02</v>
@@ -6377,7 +6389,7 @@
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="B9" s="2">
         <v>0.02</v>
@@ -6385,7 +6397,7 @@
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="B10" s="2">
         <v>0.02</v>
@@ -6393,7 +6405,7 @@
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2">
         <v>0.02</v>
@@ -6401,7 +6413,7 @@
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2">
         <v>0.02</v>
@@ -6409,7 +6421,7 @@
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2">
         <v>0.02</v>
@@ -6417,7 +6429,7 @@
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="B14" s="2">
         <v>0.02</v>
@@ -6425,7 +6437,7 @@
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="B15" s="2">
         <v>0.02</v>
@@ -6433,7 +6445,7 @@
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="B16" s="2">
         <v>0.02</v>
@@ -6441,7 +6453,7 @@
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2">
         <v>0.02</v>
@@ -6449,7 +6461,7 @@
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2">
         <v>0.02</v>
@@ -6457,7 +6469,7 @@
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="B19" s="2">
         <v>0.02</v>
@@ -7012,10 +7024,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -7024,12 +7036,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>40</v>
@@ -7046,7 +7058,7 @@
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>40</v>
@@ -7063,7 +7075,7 @@
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>120</v>
@@ -7080,7 +7092,7 @@
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>160</v>
@@ -7097,7 +7109,7 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>200</v>
@@ -7114,7 +7126,7 @@
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>600</v>
@@ -7131,7 +7143,7 @@
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>800</v>
@@ -7148,7 +7160,7 @@
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
         <v>1000</v>
@@ -7165,7 +7177,7 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>1200</v>
@@ -7182,7 +7194,7 @@
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2">
         <v>1600</v>
@@ -7199,7 +7211,7 @@
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
         <v>2000</v>
@@ -7216,7 +7228,7 @@
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
         <v>2400</v>
@@ -7233,7 +7245,7 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
         <v>2800</v>
@@ -7250,7 +7262,7 @@
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2">
         <v>3200</v>
@@ -7267,7 +7279,7 @@
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
         <v>4000</v>
@@ -7284,7 +7296,7 @@
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>4800</v>
@@ -7301,7 +7313,7 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>5600</v>
@@ -7318,7 +7330,7 @@
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2">
         <v>6400</v>
@@ -7335,7 +7347,7 @@
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2">
         <v>7200</v>
@@ -7352,7 +7364,7 @@
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2">
         <v>8000</v>
@@ -7562,10 +7574,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -7574,12 +7586,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>40</v>
@@ -7596,7 +7608,7 @@
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>40</v>
@@ -7613,7 +7625,7 @@
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>120</v>
@@ -7630,7 +7642,7 @@
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>160</v>
@@ -7647,7 +7659,7 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>200</v>
@@ -7664,7 +7676,7 @@
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>600</v>
@@ -7681,7 +7693,7 @@
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>800</v>
@@ -7698,7 +7710,7 @@
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>1000</v>
@@ -7715,7 +7727,7 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>1200</v>
@@ -7732,7 +7744,7 @@
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <v>1600</v>
@@ -7749,7 +7761,7 @@
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
         <v>2000</v>
@@ -7766,7 +7778,7 @@
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
         <v>2400</v>
@@ -7783,7 +7795,7 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
         <v>2800</v>
@@ -7800,7 +7812,7 @@
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
         <v>3200</v>
@@ -7817,7 +7829,7 @@
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
         <v>4000</v>
@@ -7834,7 +7846,7 @@
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>4800</v>
@@ -7851,7 +7863,7 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>5600</v>
@@ -7868,7 +7880,7 @@
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2">
         <v>6400</v>
@@ -7885,7 +7897,7 @@
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2">
         <v>7200</v>
@@ -7902,7 +7914,7 @@
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2">
         <v>8000</v>
@@ -8215,10 +8227,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -8227,12 +8239,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>40</v>
@@ -8249,7 +8261,7 @@
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>40</v>
@@ -8266,7 +8278,7 @@
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>120</v>
@@ -8283,7 +8295,7 @@
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>160</v>
@@ -8300,7 +8312,7 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>200</v>
@@ -8317,7 +8329,7 @@
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>600</v>
@@ -8334,7 +8346,7 @@
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>800</v>
@@ -8351,7 +8363,7 @@
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>1000</v>
@@ -8368,7 +8380,7 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>1200</v>
@@ -8385,7 +8397,7 @@
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <v>1600</v>
@@ -8402,7 +8414,7 @@
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
         <v>2000</v>
@@ -8419,7 +8431,7 @@
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
         <v>2400</v>
@@ -8436,7 +8448,7 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
         <v>2800</v>
@@ -8453,7 +8465,7 @@
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
         <v>3200</v>
@@ -8470,7 +8482,7 @@
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
         <v>4000</v>
@@ -8487,7 +8499,7 @@
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>4800</v>
@@ -8504,7 +8516,7 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>5600</v>
@@ -8521,7 +8533,7 @@
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2">
         <v>6400</v>
@@ -8538,7 +8550,7 @@
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2">
         <v>7200</v>
@@ -8555,7 +8567,7 @@
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2">
         <v>8000</v>
@@ -9028,10 +9040,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -9040,12 +9052,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>120</v>
@@ -9062,7 +9074,7 @@
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>160</v>
@@ -9079,7 +9091,7 @@
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>200</v>
@@ -9096,7 +9108,7 @@
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>600</v>
@@ -9113,7 +9125,7 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>800</v>
@@ -9130,7 +9142,7 @@
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -9147,7 +9159,7 @@
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>1200</v>
@@ -9164,7 +9176,7 @@
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>1600</v>
@@ -9181,7 +9193,7 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
         <v>2000</v>
@@ -9198,7 +9210,7 @@
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
         <v>2400</v>
@@ -9215,7 +9227,7 @@
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2">
         <v>2800</v>
@@ -9232,7 +9244,7 @@
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
         <v>3200</v>
@@ -9249,7 +9261,7 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2">
         <v>4000</v>
@@ -9266,7 +9278,7 @@
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2">
         <v>4800</v>
@@ -9283,7 +9295,7 @@
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2">
         <v>5600</v>
@@ -9300,7 +9312,7 @@
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>6400</v>
@@ -9317,7 +9329,7 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2">
         <v>7200</v>
@@ -9334,7 +9346,7 @@
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>8000</v>
@@ -9649,10 +9661,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -9661,12 +9673,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>120</v>
@@ -9683,7 +9695,7 @@
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>160</v>
@@ -9700,7 +9712,7 @@
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>200</v>
@@ -9717,7 +9729,7 @@
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>600</v>
@@ -9734,7 +9746,7 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>800</v>
@@ -9751,7 +9763,7 @@
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -9768,7 +9780,7 @@
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>1200</v>
@@ -9785,7 +9797,7 @@
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>1600</v>
@@ -9802,7 +9814,7 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
         <v>2000</v>
@@ -9819,7 +9831,7 @@
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
         <v>2400</v>
@@ -9836,7 +9848,7 @@
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2">
         <v>2800</v>
@@ -9853,7 +9865,7 @@
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
         <v>3200</v>
@@ -9870,7 +9882,7 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2">
         <v>4000</v>
@@ -9887,7 +9899,7 @@
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2">
         <v>4800</v>
@@ -9904,7 +9916,7 @@
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2">
         <v>5600</v>
@@ -9921,7 +9933,7 @@
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>6400</v>
@@ -9938,7 +9950,7 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2">
         <v>7200</v>
@@ -9955,7 +9967,7 @@
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>8000</v>
@@ -10256,7 +10268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -10268,10 +10280,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -10280,12 +10292,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>120</v>
@@ -10302,7 +10314,7 @@
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>160</v>
@@ -10319,7 +10331,7 @@
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>200</v>
@@ -10336,7 +10348,7 @@
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>600</v>
@@ -10353,7 +10365,7 @@
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>800</v>
@@ -10370,7 +10382,7 @@
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -10387,7 +10399,7 @@
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>1200</v>
@@ -10404,7 +10416,7 @@
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>1600</v>
@@ -10421,7 +10433,7 @@
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
         <v>2000</v>
@@ -10438,7 +10450,7 @@
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
         <v>2400</v>
@@ -10455,7 +10467,7 @@
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2">
         <v>2800</v>
@@ -10472,7 +10484,7 @@
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
         <v>3200</v>
@@ -10489,7 +10501,7 @@
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2">
         <v>4000</v>
@@ -10506,7 +10518,7 @@
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2">
         <v>4800</v>
@@ -10523,7 +10535,7 @@
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2">
         <v>5600</v>
@@ -10540,7 +10552,7 @@
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>6400</v>
@@ -10557,7 +10569,7 @@
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2">
         <v>7200</v>
@@ -10574,7 +10586,7 @@
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>8000</v>

--- a/gameData/shared/DragonEquipments.xlsx
+++ b/gameData/shared/DragonEquipments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="2800" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="6800" yWindow="4000" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="equipments" sheetId="62" r:id="rId1"/>
@@ -663,7 +663,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>marchSizeAdd</t>
+    <t>infantryAtkAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryLoadAdd</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -671,11 +675,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>infantryAtkAdd</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantryLoadAdd</t>
+    <t>troopSizeAdd</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6314,7 +6314,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2">
         <v>0.02</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4" s="2">
         <v>0.02</v>
@@ -6461,7 +6461,7 @@
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B18" s="2">
         <v>0.02</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B19" s="2">
         <v>0.02</v>

--- a/gameData/shared/DragonEquipments.xlsx
+++ b/gameData/shared/DragonEquipments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="4000" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="7380" yWindow="2340" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="equipments" sheetId="62" r:id="rId1"/>
@@ -671,11 +671,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>casualtyRateAdd</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>troopSizeAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>recoverAdd</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -857,7 +857,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1386">
+  <cellStyleXfs count="1392">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -872,6 +872,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2267,7 +2273,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1386">
+  <cellStyles count="1392">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2963,6 +2969,9 @@
     <cellStyle name="超链接" xfId="1380" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1382" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1390" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3651,6 +3660,9 @@
     <cellStyle name="访问过的超链接" xfId="1381" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1383" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1391" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -6314,7 +6326,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6461,7 +6473,7 @@
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2">
         <v>0.02</v>
@@ -6469,7 +6481,7 @@
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2">
         <v>0.02</v>
